--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2625236.359365041</v>
+        <v>-2627917.311702683</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9785643.505521225</v>
+        <v>9785643.505521229</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673444</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>352.8659662433015</v>
+        <v>352.8659662433014</v>
       </c>
       <c r="D11" t="n">
-        <v>342.2761160929769</v>
+        <v>342.2761160929768</v>
       </c>
       <c r="E11" t="n">
-        <v>369.5234445445557</v>
+        <v>369.5234445445556</v>
       </c>
       <c r="F11" t="n">
-        <v>394.4691202140054</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5269460289877</v>
+        <v>298.7907464950324</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>282.3252280911735</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.63825917988947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.05761103055683</v>
       </c>
       <c r="T11" t="n">
-        <v>69.38302191836573</v>
+        <v>191.5642133033482</v>
       </c>
       <c r="U11" t="n">
-        <v>238.5892181034551</v>
+        <v>238.589218103455</v>
       </c>
       <c r="V11" t="n">
-        <v>315.3453329424289</v>
+        <v>315.3453329424287</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>336.8340431897068</v>
       </c>
       <c r="X11" t="n">
-        <v>357.324175150763</v>
+        <v>357.3241751507629</v>
       </c>
       <c r="Y11" t="n">
-        <v>373.8310131283475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.65963851412518</v>
+        <v>89.65963851412519</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264396657</v>
+        <v>8.915218264396685</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.4250546542312</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>154.8398955709217</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>98.21106880860447</v>
+        <v>153.624330965378</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>132.3965291403118</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>31.94067035292771</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>76.77019955725576</v>
+        <v>76.77019955725567</v>
       </c>
       <c r="S13" t="n">
-        <v>177.4570476645104</v>
+        <v>177.4570476645103</v>
       </c>
       <c r="T13" t="n">
-        <v>207.1653025667021</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>273.8052098543099</v>
+        <v>273.8052098543097</v>
       </c>
       <c r="V13" t="n">
-        <v>239.730717796122</v>
+        <v>239.7307177961218</v>
       </c>
       <c r="W13" t="n">
-        <v>274.116072808885</v>
+        <v>274.1160728088848</v>
       </c>
       <c r="X13" t="n">
-        <v>213.3027298613311</v>
+        <v>213.302729861331</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.1777278243887</v>
+        <v>206.1777278243886</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>370.3269161357745</v>
+        <v>370.3269161357744</v>
       </c>
       <c r="C14" t="n">
-        <v>279.4412902707219</v>
+        <v>352.8659662433013</v>
       </c>
       <c r="D14" t="n">
-        <v>342.2761160929769</v>
+        <v>342.2761160929767</v>
       </c>
       <c r="E14" t="n">
-        <v>369.5234445445557</v>
+        <v>369.5234445445556</v>
       </c>
       <c r="F14" t="n">
-        <v>394.4691202140054</v>
+        <v>394.4691202140052</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5181463263857</v>
+        <v>325.0934703538068</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>336.834043189707</v>
+        <v>336.8340431897068</v>
       </c>
       <c r="X14" t="n">
-        <v>357.324175150763</v>
+        <v>357.3241751507628</v>
       </c>
       <c r="Y14" t="n">
-        <v>373.8310131283475</v>
+        <v>373.8310131283474</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.61416667355009</v>
       </c>
       <c r="I15" t="n">
-        <v>16.1927522180216</v>
+        <v>16.19275221802161</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.4250546542312</v>
+        <v>167.4250546542311</v>
       </c>
       <c r="C16" t="n">
-        <v>154.8398955709218</v>
+        <v>154.8398955709216</v>
       </c>
       <c r="D16" t="n">
-        <v>136.2085474905063</v>
+        <v>136.2085474905061</v>
       </c>
       <c r="E16" t="n">
-        <v>134.0270371188631</v>
+        <v>134.0270371188629</v>
       </c>
       <c r="F16" t="n">
-        <v>133.0141224952252</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>153.6203837217314</v>
+        <v>153.6203837217313</v>
       </c>
       <c r="H16" t="n">
-        <v>132.3614345558898</v>
+        <v>132.3614345558897</v>
       </c>
       <c r="I16" t="n">
-        <v>83.990633757349</v>
+        <v>83.99063375734886</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.59271712928903</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>177.3882579729592</v>
+        <v>177.3882579729591</v>
       </c>
       <c r="T16" t="n">
-        <v>207.148437071121</v>
+        <v>10.48338345300952</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>273.8049945501108</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>239.7307177961218</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>274.1160728088848</v>
       </c>
       <c r="X16" t="n">
-        <v>213.3027298613311</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>168.0771620511581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>323.2838898510323</v>
+        <v>323.2838898510321</v>
       </c>
       <c r="C17" t="n">
-        <v>305.8229399585593</v>
+        <v>305.8229399585591</v>
       </c>
       <c r="D17" t="n">
-        <v>295.2330898082347</v>
+        <v>295.2330898082345</v>
       </c>
       <c r="E17" t="n">
-        <v>322.4804182598135</v>
+        <v>322.4804182598133</v>
       </c>
       <c r="F17" t="n">
-        <v>347.4260939292632</v>
+        <v>347.426093929263</v>
       </c>
       <c r="G17" t="n">
-        <v>351.4751200416435</v>
+        <v>351.4751200416433</v>
       </c>
       <c r="H17" t="n">
-        <v>235.1920818521592</v>
+        <v>235.192081852159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>49.81406152277282</v>
+        <v>49.81406152277265</v>
       </c>
       <c r="T17" t="n">
-        <v>144.4826663204661</v>
+        <v>144.4826663204659</v>
       </c>
       <c r="U17" t="n">
-        <v>191.5454878425048</v>
+        <v>191.5454878425046</v>
       </c>
       <c r="V17" t="n">
-        <v>268.3023066576866</v>
+        <v>268.3023066576865</v>
       </c>
       <c r="W17" t="n">
-        <v>289.7910169049647</v>
+        <v>289.7910169049646</v>
       </c>
       <c r="X17" t="n">
-        <v>310.2811488660208</v>
+        <v>310.2811488660206</v>
       </c>
       <c r="Y17" t="n">
-        <v>326.7879868436053</v>
+        <v>326.7879868436052</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.61416667355009</v>
       </c>
       <c r="I18" t="n">
-        <v>15.93868203292634</v>
+        <v>16.19275221802172</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2540701850952303</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>128.1767630751921</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120.382028369489</v>
+        <v>120.3820283694888</v>
       </c>
       <c r="C19" t="n">
-        <v>107.7968692861796</v>
+        <v>107.7968692861794</v>
       </c>
       <c r="D19" t="n">
-        <v>89.16552120576408</v>
+        <v>89.16552120576389</v>
       </c>
       <c r="E19" t="n">
-        <v>86.98401083412089</v>
+        <v>86.98401083412071</v>
       </c>
       <c r="F19" t="n">
-        <v>85.97109621048297</v>
+        <v>85.97109621048278</v>
       </c>
       <c r="G19" t="n">
-        <v>106.5773574369892</v>
+        <v>106.577357436989</v>
       </c>
       <c r="H19" t="n">
-        <v>85.31840827114766</v>
+        <v>85.31840827114748</v>
       </c>
       <c r="I19" t="n">
-        <v>36.9476074726068</v>
+        <v>36.94760747260661</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>29.5496908445468</v>
+        <v>29.54969084454662</v>
       </c>
       <c r="S19" t="n">
-        <v>130.345231688217</v>
+        <v>130.3452316882168</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1054107863787</v>
+        <v>160.1054107863785</v>
       </c>
       <c r="U19" t="n">
-        <v>226.7619682653688</v>
+        <v>226.7619682653686</v>
       </c>
       <c r="V19" t="n">
-        <v>192.6876915113797</v>
+        <v>192.6876915113795</v>
       </c>
       <c r="W19" t="n">
-        <v>227.0730465241427</v>
+        <v>227.0730465241425</v>
       </c>
       <c r="X19" t="n">
-        <v>166.2597035765889</v>
+        <v>166.2597035765887</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.1347015396465</v>
+        <v>159.1347015396463</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>323.2838898510323</v>
+        <v>323.2838898510321</v>
       </c>
       <c r="C20" t="n">
-        <v>305.8229399585593</v>
+        <v>305.8229399585591</v>
       </c>
       <c r="D20" t="n">
-        <v>295.2330898082347</v>
+        <v>295.2330898082345</v>
       </c>
       <c r="E20" t="n">
-        <v>322.4804182598135</v>
+        <v>322.4804182598133</v>
       </c>
       <c r="F20" t="n">
-        <v>347.4260939292632</v>
+        <v>347.426093929263</v>
       </c>
       <c r="G20" t="n">
-        <v>351.4751200416435</v>
+        <v>351.4751200416433</v>
       </c>
       <c r="H20" t="n">
-        <v>235.1920818521592</v>
+        <v>235.192081852159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.81406152277282</v>
+        <v>49.81406152277265</v>
       </c>
       <c r="T20" t="n">
-        <v>144.4826663204661</v>
+        <v>144.4826663204659</v>
       </c>
       <c r="U20" t="n">
-        <v>191.5454878425048</v>
+        <v>191.5454878425046</v>
       </c>
       <c r="V20" t="n">
-        <v>268.3023066576866</v>
+        <v>268.3023066576865</v>
       </c>
       <c r="W20" t="n">
-        <v>289.7910169049647</v>
+        <v>289.7910169049646</v>
       </c>
       <c r="X20" t="n">
-        <v>310.2811488660208</v>
+        <v>310.2811488660206</v>
       </c>
       <c r="Y20" t="n">
-        <v>326.7879868436053</v>
+        <v>326.7879868436052</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.61416667355009</v>
       </c>
       <c r="I21" t="n">
-        <v>16.19275221802167</v>
+        <v>16.19275221802172</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.382028369489</v>
+        <v>120.3820283694888</v>
       </c>
       <c r="C22" t="n">
-        <v>107.7968692861796</v>
+        <v>107.7968692861794</v>
       </c>
       <c r="D22" t="n">
-        <v>89.16552120576408</v>
+        <v>89.16552120576389</v>
       </c>
       <c r="E22" t="n">
-        <v>86.98401083412089</v>
+        <v>86.98401083412071</v>
       </c>
       <c r="F22" t="n">
-        <v>85.97109621048297</v>
+        <v>85.97109621048278</v>
       </c>
       <c r="G22" t="n">
-        <v>106.5773574369892</v>
+        <v>106.577357436989</v>
       </c>
       <c r="H22" t="n">
-        <v>85.31840827114766</v>
+        <v>85.31840827114748</v>
       </c>
       <c r="I22" t="n">
-        <v>36.9476074726068</v>
+        <v>36.94760747260661</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>29.5496908445468</v>
+        <v>29.54969084454662</v>
       </c>
       <c r="S22" t="n">
-        <v>130.345231688217</v>
+        <v>130.3452316882168</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1054107863787</v>
+        <v>160.1054107863785</v>
       </c>
       <c r="U22" t="n">
-        <v>226.7619682653688</v>
+        <v>226.7619682653686</v>
       </c>
       <c r="V22" t="n">
-        <v>192.6876915113797</v>
+        <v>192.6876915113795</v>
       </c>
       <c r="W22" t="n">
-        <v>227.0730465241427</v>
+        <v>227.0730465241425</v>
       </c>
       <c r="X22" t="n">
-        <v>166.2597035765889</v>
+        <v>166.2597035765887</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.1347015396465</v>
+        <v>159.1347015396463</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>323.2838898510323</v>
+        <v>323.2838898510321</v>
       </c>
       <c r="C23" t="n">
-        <v>305.8229399585593</v>
+        <v>305.8229399585591</v>
       </c>
       <c r="D23" t="n">
-        <v>295.2330898082347</v>
+        <v>295.2330898082345</v>
       </c>
       <c r="E23" t="n">
-        <v>322.4804182598135</v>
+        <v>322.4804182598133</v>
       </c>
       <c r="F23" t="n">
-        <v>347.4260939292632</v>
+        <v>347.426093929263</v>
       </c>
       <c r="G23" t="n">
-        <v>351.4751200416435</v>
+        <v>351.4751200416433</v>
       </c>
       <c r="H23" t="n">
-        <v>235.1920818521592</v>
+        <v>235.192081852159</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>49.81406152277282</v>
+        <v>49.81406152277265</v>
       </c>
       <c r="T23" t="n">
-        <v>144.4826663204661</v>
+        <v>144.4826663204659</v>
       </c>
       <c r="U23" t="n">
-        <v>191.5454878425048</v>
+        <v>191.5454878425046</v>
       </c>
       <c r="V23" t="n">
-        <v>268.3023066576866</v>
+        <v>268.3023066576865</v>
       </c>
       <c r="W23" t="n">
-        <v>289.7910169049647</v>
+        <v>289.7910169049646</v>
       </c>
       <c r="X23" t="n">
-        <v>310.2811488660208</v>
+        <v>310.2811488660206</v>
       </c>
       <c r="Y23" t="n">
-        <v>326.7879868436053</v>
+        <v>326.7879868436052</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.61416667355009</v>
       </c>
       <c r="I24" t="n">
-        <v>16.19275221802167</v>
+        <v>16.19275221802171</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.382028369489</v>
+        <v>120.3820283694888</v>
       </c>
       <c r="C25" t="n">
-        <v>107.7968692861796</v>
+        <v>107.7968692861794</v>
       </c>
       <c r="D25" t="n">
-        <v>89.16552120576408</v>
+        <v>89.16552120576389</v>
       </c>
       <c r="E25" t="n">
-        <v>86.98401083412089</v>
+        <v>86.98401083412071</v>
       </c>
       <c r="F25" t="n">
-        <v>85.97109621048297</v>
+        <v>85.97109621048278</v>
       </c>
       <c r="G25" t="n">
-        <v>106.5773574369892</v>
+        <v>106.577357436989</v>
       </c>
       <c r="H25" t="n">
-        <v>85.31840827114766</v>
+        <v>85.31840827114748</v>
       </c>
       <c r="I25" t="n">
-        <v>36.9476074726068</v>
+        <v>36.94760747260661</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>29.5496908445468</v>
+        <v>29.54969084454662</v>
       </c>
       <c r="S25" t="n">
-        <v>130.345231688217</v>
+        <v>130.3452316882168</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1054107863787</v>
+        <v>160.1054107863785</v>
       </c>
       <c r="U25" t="n">
-        <v>226.7619682653688</v>
+        <v>226.7619682653686</v>
       </c>
       <c r="V25" t="n">
-        <v>192.6876915113797</v>
+        <v>192.6876915113795</v>
       </c>
       <c r="W25" t="n">
-        <v>227.0730465241427</v>
+        <v>227.0730465241425</v>
       </c>
       <c r="X25" t="n">
-        <v>166.2597035765889</v>
+        <v>166.2597035765887</v>
       </c>
       <c r="Y25" t="n">
-        <v>159.1347015396465</v>
+        <v>159.1347015396463</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.6908153787384</v>
+        <v>335.6908153787383</v>
       </c>
       <c r="C26" t="n">
         <v>318.2298654862653</v>
@@ -2561,7 +2561,7 @@
         <v>307.6400153359407</v>
       </c>
       <c r="E26" t="n">
-        <v>334.8873437875196</v>
+        <v>334.8873437875195</v>
       </c>
       <c r="F26" t="n">
         <v>359.8330194569692</v>
@@ -2570,7 +2570,7 @@
         <v>363.8820455693495</v>
       </c>
       <c r="H26" t="n">
-        <v>247.5990073798653</v>
+        <v>247.5990073798652</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2209870504789</v>
+        <v>62.22098705047884</v>
       </c>
       <c r="T26" t="n">
-        <v>156.8895918481721</v>
+        <v>156.889591848172</v>
       </c>
       <c r="U26" t="n">
         <v>203.9524133702108</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7092321853927</v>
+        <v>280.7092321853926</v>
       </c>
       <c r="W26" t="n">
-        <v>302.1979424326708</v>
+        <v>302.1979424326707</v>
       </c>
       <c r="X26" t="n">
         <v>322.6880743937268</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.1949123713114</v>
+        <v>339.1949123713113</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.7889538971951</v>
+        <v>132.788953897195</v>
       </c>
       <c r="C28" t="n">
         <v>120.2037948138856</v>
@@ -2719,19 +2719,19 @@
         <v>101.5724467334701</v>
       </c>
       <c r="E28" t="n">
-        <v>99.39093636182696</v>
+        <v>99.3909363618269</v>
       </c>
       <c r="F28" t="n">
-        <v>98.37802173818903</v>
+        <v>98.37802173818898</v>
       </c>
       <c r="G28" t="n">
-        <v>118.9842829646953</v>
+        <v>118.9842829646952</v>
       </c>
       <c r="H28" t="n">
-        <v>97.72533379885373</v>
+        <v>97.72533379885367</v>
       </c>
       <c r="I28" t="n">
-        <v>49.35453300031286</v>
+        <v>49.35453300031281</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95661637225287</v>
+        <v>41.95661637225281</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7521572159231</v>
+        <v>142.752157215923</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5123363140848</v>
+        <v>172.5123363140847</v>
       </c>
       <c r="U28" t="n">
-        <v>239.1688937930748</v>
+        <v>239.1688937930747</v>
       </c>
       <c r="V28" t="n">
-        <v>205.0946170390858</v>
+        <v>205.0946170390857</v>
       </c>
       <c r="W28" t="n">
-        <v>239.4799720518488</v>
+        <v>239.4799720518487</v>
       </c>
       <c r="X28" t="n">
         <v>178.6666291042949</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.5416270673526</v>
+        <v>171.5416270673525</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.6908153787383</v>
+        <v>335.6908153787384</v>
       </c>
       <c r="C29" t="n">
         <v>318.2298654862653</v>
@@ -2798,7 +2798,7 @@
         <v>307.6400153359407</v>
       </c>
       <c r="E29" t="n">
-        <v>334.8873437875195</v>
+        <v>334.8873437875196</v>
       </c>
       <c r="F29" t="n">
         <v>359.8330194569692</v>
@@ -2807,7 +2807,7 @@
         <v>363.8820455693495</v>
       </c>
       <c r="H29" t="n">
-        <v>247.5990073798652</v>
+        <v>247.5990073798653</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.22098705047884</v>
+        <v>62.22098705047887</v>
       </c>
       <c r="T29" t="n">
-        <v>156.889591848172</v>
+        <v>156.8895918481721</v>
       </c>
       <c r="U29" t="n">
         <v>203.9524133702108</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7092321853926</v>
+        <v>280.7092321853927</v>
       </c>
       <c r="W29" t="n">
-        <v>302.1979424326707</v>
+        <v>302.1979424326708</v>
       </c>
       <c r="X29" t="n">
         <v>322.6880743937268</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.1949123713113</v>
+        <v>339.1949123713114</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.61416667355009</v>
       </c>
       <c r="I30" t="n">
-        <v>16.19275221802162</v>
+        <v>16.19275221802158</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.788953897195</v>
+        <v>132.7889538971951</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2037948138869</v>
+        <v>120.2037948138856</v>
       </c>
       <c r="D31" t="n">
         <v>101.5724467334701</v>
       </c>
       <c r="E31" t="n">
-        <v>99.3909363618269</v>
+        <v>99.39093636182695</v>
       </c>
       <c r="F31" t="n">
-        <v>98.37802173818898</v>
+        <v>98.37802173818902</v>
       </c>
       <c r="G31" t="n">
-        <v>118.9842829646952</v>
+        <v>118.9842829646953</v>
       </c>
       <c r="H31" t="n">
-        <v>97.72533379885367</v>
+        <v>97.72533379885371</v>
       </c>
       <c r="I31" t="n">
-        <v>49.35453300031281</v>
+        <v>49.35453300031285</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95661637225281</v>
+        <v>41.95661637225287</v>
       </c>
       <c r="S31" t="n">
-        <v>142.752157215923</v>
+        <v>142.7521572159231</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5123363140847</v>
+        <v>172.5123363140848</v>
       </c>
       <c r="U31" t="n">
-        <v>239.1688937930747</v>
+        <v>239.1688937930748</v>
       </c>
       <c r="V31" t="n">
-        <v>205.0946170390857</v>
+        <v>205.0946170390858</v>
       </c>
       <c r="W31" t="n">
-        <v>239.4799720518487</v>
+        <v>239.4799720518488</v>
       </c>
       <c r="X31" t="n">
         <v>178.6666291042949</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.5416270673525</v>
+        <v>171.5416270673526</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.6908153787383</v>
+        <v>335.6908153787384</v>
       </c>
       <c r="C32" t="n">
         <v>318.2298654862653</v>
@@ -3035,7 +3035,7 @@
         <v>307.6400153359407</v>
       </c>
       <c r="E32" t="n">
-        <v>334.8873437875195</v>
+        <v>334.8873437875196</v>
       </c>
       <c r="F32" t="n">
         <v>359.8330194569692</v>
@@ -3044,7 +3044,7 @@
         <v>363.8820455693495</v>
       </c>
       <c r="H32" t="n">
-        <v>247.5990073798652</v>
+        <v>247.5990073798653</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.22098705047886</v>
+        <v>62.22098705047889</v>
       </c>
       <c r="T32" t="n">
         <v>156.8895918481721</v>
@@ -3086,16 +3086,16 @@
         <v>203.9524133702108</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7092321853926</v>
+        <v>280.7092321853927</v>
       </c>
       <c r="W32" t="n">
-        <v>302.1979424326707</v>
+        <v>302.1979424326708</v>
       </c>
       <c r="X32" t="n">
         <v>322.6880743937268</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.1949123713113</v>
+        <v>339.1949123713114</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.61416667355009</v>
       </c>
       <c r="I33" t="n">
-        <v>16.19275221802161</v>
+        <v>16.1927522180216</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>101.5724467334701</v>
       </c>
       <c r="E34" t="n">
-        <v>99.39093636182693</v>
+        <v>99.39093636182696</v>
       </c>
       <c r="F34" t="n">
-        <v>98.37802173818901</v>
+        <v>98.37802173818903</v>
       </c>
       <c r="G34" t="n">
-        <v>118.9842829646952</v>
+        <v>118.9842829646953</v>
       </c>
       <c r="H34" t="n">
-        <v>97.72533379885368</v>
+        <v>97.72533379885371</v>
       </c>
       <c r="I34" t="n">
-        <v>49.35453300031283</v>
+        <v>49.35453300031286</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95661637225283</v>
+        <v>41.95661637225286</v>
       </c>
       <c r="S34" t="n">
-        <v>142.752157215923</v>
+        <v>142.7521572159231</v>
       </c>
       <c r="T34" t="n">
         <v>172.5123363140848</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.6908153787384</v>
+        <v>335.6908153787383</v>
       </c>
       <c r="C35" t="n">
         <v>318.2298654862653</v>
@@ -3272,7 +3272,7 @@
         <v>307.6400153359407</v>
       </c>
       <c r="E35" t="n">
-        <v>334.8873437875196</v>
+        <v>334.8873437875195</v>
       </c>
       <c r="F35" t="n">
         <v>359.8330194569692</v>
@@ -3281,7 +3281,7 @@
         <v>363.8820455693495</v>
       </c>
       <c r="H35" t="n">
-        <v>247.5990073798653</v>
+        <v>247.5990073798652</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.22098705047889</v>
+        <v>62.22098705047887</v>
       </c>
       <c r="T35" t="n">
         <v>156.8895918481721</v>
@@ -3326,7 +3326,7 @@
         <v>280.7092321853927</v>
       </c>
       <c r="W35" t="n">
-        <v>302.1979424326708</v>
+        <v>302.1979424326707</v>
       </c>
       <c r="X35" t="n">
         <v>322.6880743937268</v>
@@ -3363,7 +3363,7 @@
         <v>89.61416667355009</v>
       </c>
       <c r="I36" t="n">
-        <v>16.1927522180216</v>
+        <v>15.93868203292628</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.2540701850952303</v>
       </c>
       <c r="S36" t="n">
         <v>128.1767630751921</v>
@@ -3430,19 +3430,19 @@
         <v>101.5724467334701</v>
       </c>
       <c r="E37" t="n">
-        <v>99.39093636182696</v>
+        <v>99.39093636182693</v>
       </c>
       <c r="F37" t="n">
-        <v>98.37802173818903</v>
+        <v>98.37802173818901</v>
       </c>
       <c r="G37" t="n">
-        <v>118.9842829646953</v>
+        <v>118.9842829646952</v>
       </c>
       <c r="H37" t="n">
-        <v>97.72533379885371</v>
+        <v>97.72533379885368</v>
       </c>
       <c r="I37" t="n">
-        <v>49.35453300031286</v>
+        <v>49.35453300031284</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95661637225286</v>
+        <v>41.95661637225284</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7521572159231</v>
+        <v>142.752157215923</v>
       </c>
       <c r="T37" t="n">
         <v>172.5123363140848</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.6908153787384</v>
+        <v>335.6908153787383</v>
       </c>
       <c r="C38" t="n">
         <v>318.2298654862653</v>
@@ -3509,7 +3509,7 @@
         <v>307.6400153359407</v>
       </c>
       <c r="E38" t="n">
-        <v>334.8873437875196</v>
+        <v>334.8873437875195</v>
       </c>
       <c r="F38" t="n">
         <v>359.8330194569692</v>
@@ -3518,7 +3518,7 @@
         <v>363.8820455693495</v>
       </c>
       <c r="H38" t="n">
-        <v>247.5990073798653</v>
+        <v>247.5990073798652</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.22098705047891</v>
+        <v>62.22098705047887</v>
       </c>
       <c r="T38" t="n">
         <v>156.8895918481721</v>
@@ -3563,7 +3563,7 @@
         <v>280.7092321853927</v>
       </c>
       <c r="W38" t="n">
-        <v>302.1979424326708</v>
+        <v>302.1979424326707</v>
       </c>
       <c r="X38" t="n">
         <v>322.6880743937268</v>
@@ -3600,7 +3600,7 @@
         <v>89.61416667355009</v>
       </c>
       <c r="I39" t="n">
-        <v>15.93868203292625</v>
+        <v>15.93868203292628</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>120.2037948138856</v>
       </c>
       <c r="D40" t="n">
-        <v>101.5724467334702</v>
+        <v>101.5724467334701</v>
       </c>
       <c r="E40" t="n">
-        <v>99.39093636182697</v>
+        <v>99.39093636182693</v>
       </c>
       <c r="F40" t="n">
-        <v>98.37802173818905</v>
+        <v>98.37802173818901</v>
       </c>
       <c r="G40" t="n">
         <v>118.9842829646953</v>
       </c>
       <c r="H40" t="n">
-        <v>97.72533379885374</v>
+        <v>97.7253337988537</v>
       </c>
       <c r="I40" t="n">
-        <v>49.35453300031288</v>
+        <v>49.35453300031283</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95661637225287</v>
+        <v>41.95661637225284</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7521572159231</v>
+        <v>142.752157215923</v>
       </c>
       <c r="T40" t="n">
         <v>172.5123363140848</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.6908153787384</v>
+        <v>335.6908153787383</v>
       </c>
       <c r="C41" t="n">
         <v>318.2298654862653</v>
@@ -3746,7 +3746,7 @@
         <v>307.6400153359407</v>
       </c>
       <c r="E41" t="n">
-        <v>334.8873437875196</v>
+        <v>334.8873437875195</v>
       </c>
       <c r="F41" t="n">
         <v>359.8330194569692</v>
@@ -3755,7 +3755,7 @@
         <v>363.8820455693495</v>
       </c>
       <c r="H41" t="n">
-        <v>247.5990073798653</v>
+        <v>247.5990073798652</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.22098705047891</v>
+        <v>62.22098705047887</v>
       </c>
       <c r="T41" t="n">
         <v>156.8895918481721</v>
@@ -3800,7 +3800,7 @@
         <v>280.7092321853927</v>
       </c>
       <c r="W41" t="n">
-        <v>302.1979424326708</v>
+        <v>302.1979424326707</v>
       </c>
       <c r="X41" t="n">
         <v>322.6880743937268</v>
@@ -3901,22 +3901,22 @@
         <v>120.2037948138856</v>
       </c>
       <c r="D43" t="n">
-        <v>101.5724467334702</v>
+        <v>101.5724467334701</v>
       </c>
       <c r="E43" t="n">
-        <v>99.39093636182697</v>
+        <v>99.39093636182693</v>
       </c>
       <c r="F43" t="n">
-        <v>98.37802173818905</v>
+        <v>98.37802173818901</v>
       </c>
       <c r="G43" t="n">
         <v>118.9842829646953</v>
       </c>
       <c r="H43" t="n">
-        <v>97.72533379885374</v>
+        <v>97.7253337988537</v>
       </c>
       <c r="I43" t="n">
-        <v>49.35453300031288</v>
+        <v>49.35453300031283</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95661637225287</v>
+        <v>41.95661637225284</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7521572159231</v>
+        <v>142.752157215923</v>
       </c>
       <c r="T43" t="n">
         <v>172.5123363140848</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.6908153787384</v>
+        <v>335.6908153787383</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2298654862654</v>
+        <v>318.2298654862653</v>
       </c>
       <c r="D44" t="n">
-        <v>307.6400153359408</v>
+        <v>307.6400153359407</v>
       </c>
       <c r="E44" t="n">
-        <v>334.8873437875196</v>
+        <v>334.8873437875195</v>
       </c>
       <c r="F44" t="n">
-        <v>359.8330194569693</v>
+        <v>359.8330194569692</v>
       </c>
       <c r="G44" t="n">
-        <v>363.8820455693496</v>
+        <v>363.8820455693495</v>
       </c>
       <c r="H44" t="n">
-        <v>247.5990073798654</v>
+        <v>247.5990073798652</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.22098705047898</v>
+        <v>62.22098705047887</v>
       </c>
       <c r="T44" t="n">
-        <v>156.8895918481722</v>
+        <v>156.8895918481721</v>
       </c>
       <c r="U44" t="n">
-        <v>203.9524133702109</v>
+        <v>203.9524133702108</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7092321853928</v>
+        <v>280.7092321853927</v>
       </c>
       <c r="W44" t="n">
-        <v>302.1979424326709</v>
+        <v>302.1979424326707</v>
       </c>
       <c r="X44" t="n">
-        <v>322.6880743937269</v>
+        <v>322.6880743937268</v>
       </c>
       <c r="Y44" t="n">
         <v>339.1949123713114</v>
@@ -4074,7 +4074,7 @@
         <v>89.61416667355009</v>
       </c>
       <c r="I45" t="n">
-        <v>16.19275221802158</v>
+        <v>16.19275221802161</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.7889538971952</v>
+        <v>132.7889538971951</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2037948138857</v>
+        <v>120.2037948138856</v>
       </c>
       <c r="D46" t="n">
-        <v>101.5724467334702</v>
+        <v>101.5724467334701</v>
       </c>
       <c r="E46" t="n">
-        <v>99.39093636182704</v>
+        <v>99.39093636182693</v>
       </c>
       <c r="F46" t="n">
-        <v>98.37802173818912</v>
+        <v>98.37802173818901</v>
       </c>
       <c r="G46" t="n">
-        <v>118.9842829646954</v>
+        <v>118.9842829646953</v>
       </c>
       <c r="H46" t="n">
-        <v>97.72533379885381</v>
+        <v>97.7253337988537</v>
       </c>
       <c r="I46" t="n">
-        <v>49.35453300031295</v>
+        <v>49.35453300031283</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95661637225295</v>
+        <v>41.95661637225284</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7521572159231</v>
+        <v>142.752157215923</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5123363140849</v>
+        <v>172.5123363140848</v>
       </c>
       <c r="U46" t="n">
-        <v>239.1688937930749</v>
+        <v>239.1688937930748</v>
       </c>
       <c r="V46" t="n">
-        <v>205.0946170390859</v>
+        <v>205.0946170390858</v>
       </c>
       <c r="W46" t="n">
-        <v>239.4799720518489</v>
+        <v>239.4799720518488</v>
       </c>
       <c r="X46" t="n">
-        <v>178.666629104295</v>
+        <v>178.6666291042949</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.5416270673527</v>
+        <v>171.5416270673526</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1942.641773189749</v>
+        <v>1758.559114122175</v>
       </c>
       <c r="C11" t="n">
-        <v>1586.211504257121</v>
+        <v>1402.128845189548</v>
       </c>
       <c r="D11" t="n">
-        <v>1240.478053658155</v>
+        <v>1056.395394590581</v>
       </c>
       <c r="E11" t="n">
-        <v>867.2220490676942</v>
+        <v>683.1393900001208</v>
       </c>
       <c r="F11" t="n">
-        <v>468.7683922858706</v>
+        <v>683.1393900001208</v>
       </c>
       <c r="G11" t="n">
-        <v>66.21592154951944</v>
+        <v>381.3305551566537</v>
       </c>
       <c r="H11" t="n">
-        <v>66.21592154951944</v>
+        <v>96.1535570847613</v>
       </c>
       <c r="I11" t="n">
-        <v>66.21592154951944</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J11" t="n">
-        <v>254.0744928369591</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K11" t="n">
         <v>586.3643121319019</v>
       </c>
       <c r="L11" t="n">
-        <v>1035.500977900981</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M11" t="n">
-        <v>1566.921495383895</v>
+        <v>1566.921495383896</v>
       </c>
       <c r="N11" t="n">
-        <v>2111.55476080156</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O11" t="n">
-        <v>2612.501248106873</v>
+        <v>2612.501248106874</v>
       </c>
       <c r="P11" t="n">
         <v>3005.546484356408</v>
@@ -5063,28 +5063,28 @@
         <v>3252.53434141264</v>
       </c>
       <c r="R11" t="n">
-        <v>3310.796077475972</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S11" t="n">
-        <v>3310.796077475972</v>
+        <v>3212.758086536015</v>
       </c>
       <c r="T11" t="n">
-        <v>3240.71221695237</v>
+        <v>3019.258881179098</v>
       </c>
       <c r="U11" t="n">
-        <v>2999.71300674686</v>
+        <v>2778.259670973587</v>
       </c>
       <c r="V11" t="n">
-        <v>2681.182367411073</v>
+        <v>2459.729031637801</v>
       </c>
       <c r="W11" t="n">
-        <v>2681.182367411073</v>
+        <v>2119.492624375471</v>
       </c>
       <c r="X11" t="n">
-        <v>2320.248857157777</v>
+        <v>1758.559114122175</v>
       </c>
       <c r="Y11" t="n">
-        <v>1942.641773189749</v>
+        <v>1758.559114122175</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3156003142899</v>
+        <v>931.3156003142894</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8625710331629</v>
+        <v>756.8625710331625</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9281613719115</v>
+        <v>607.9281613719111</v>
       </c>
       <c r="E12" t="n">
-        <v>448.690706366456</v>
+        <v>448.6907063664555</v>
       </c>
       <c r="F12" t="n">
-        <v>302.156148393341</v>
+        <v>302.1561483933406</v>
       </c>
       <c r="G12" t="n">
-        <v>165.7864839520667</v>
+        <v>165.7864839520668</v>
       </c>
       <c r="H12" t="n">
-        <v>75.22119252365744</v>
+        <v>75.22119252365748</v>
       </c>
       <c r="I12" t="n">
-        <v>66.21592154951944</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J12" t="n">
-        <v>159.2853526912738</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K12" t="n">
-        <v>396.5106591183467</v>
+        <v>396.510659118347</v>
       </c>
       <c r="L12" t="n">
-        <v>761.811900185831</v>
+        <v>761.8119001858311</v>
       </c>
       <c r="M12" t="n">
         <v>1207.458086537445</v>
@@ -5136,31 +5136,31 @@
         <v>2088.738397943176</v>
       </c>
       <c r="P12" t="n">
-        <v>2398.00944543187</v>
+        <v>2398.009445431869</v>
       </c>
       <c r="Q12" t="n">
-        <v>2554.829753957941</v>
+        <v>2554.82975395794</v>
       </c>
       <c r="R12" t="n">
-        <v>2554.829753957941</v>
+        <v>2554.82975395794</v>
       </c>
       <c r="S12" t="n">
-        <v>2425.269938942937</v>
+        <v>2425.269938942936</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.600479990498</v>
+        <v>2232.600479990497</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.532201264789</v>
+        <v>2004.532201264788</v>
       </c>
       <c r="V12" t="n">
         <v>1769.380093033046</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.142736304845</v>
+        <v>1515.142736304844</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.291236099312</v>
+        <v>1307.291236099311</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.530937334358</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165.4190213561906</v>
+        <v>543.793119559155</v>
       </c>
       <c r="C13" t="n">
-        <v>165.4190213561906</v>
+        <v>387.3891846390322</v>
       </c>
       <c r="D13" t="n">
-        <v>165.4190213561906</v>
+        <v>387.3891846390322</v>
       </c>
       <c r="E13" t="n">
-        <v>165.4190213561906</v>
+        <v>387.3891846390322</v>
       </c>
       <c r="F13" t="n">
-        <v>165.4190213561906</v>
+        <v>387.3891846390322</v>
       </c>
       <c r="G13" t="n">
-        <v>66.21592154951944</v>
+        <v>232.2130927548119</v>
       </c>
       <c r="H13" t="n">
-        <v>66.21592154951944</v>
+        <v>98.47922493631509</v>
       </c>
       <c r="I13" t="n">
-        <v>66.21592154951944</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J13" t="n">
-        <v>123.2400720226078</v>
+        <v>123.2400720226079</v>
       </c>
       <c r="K13" t="n">
-        <v>338.883455362801</v>
+        <v>338.8834553628011</v>
       </c>
       <c r="L13" t="n">
-        <v>666.9242063059711</v>
+        <v>666.9242063059712</v>
       </c>
       <c r="M13" t="n">
         <v>1022.518613079513</v>
       </c>
       <c r="N13" t="n">
-        <v>1375.384454943036</v>
+        <v>1375.384454943037</v>
       </c>
       <c r="O13" t="n">
-        <v>1686.234527847965</v>
+        <v>1686.234527847966</v>
       </c>
       <c r="P13" t="n">
         <v>1930.472534801134</v>
@@ -5221,28 +5221,28 @@
         <v>2019.914034071076</v>
       </c>
       <c r="R13" t="n">
-        <v>1942.368377952635</v>
+        <v>1942.368377952636</v>
       </c>
       <c r="S13" t="n">
-        <v>1763.11883485717</v>
+        <v>1763.118834857171</v>
       </c>
       <c r="T13" t="n">
-        <v>1553.860953476663</v>
+        <v>1763.118834857171</v>
       </c>
       <c r="U13" t="n">
-        <v>1277.290034431906</v>
+        <v>1486.547915812414</v>
       </c>
       <c r="V13" t="n">
-        <v>1035.137794233803</v>
+        <v>1244.395675614311</v>
       </c>
       <c r="W13" t="n">
-        <v>758.2528722046261</v>
+        <v>967.5107535851345</v>
       </c>
       <c r="X13" t="n">
-        <v>542.7955693143927</v>
+        <v>752.0534506949011</v>
       </c>
       <c r="Y13" t="n">
-        <v>334.5352381786464</v>
+        <v>543.793119559155</v>
       </c>
     </row>
     <row r="14">
@@ -5252,67 +5252,67 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1868.681138322756</v>
+        <v>1868.681138322755</v>
       </c>
       <c r="C14" t="n">
-        <v>1586.41720875637</v>
+        <v>1512.250869390128</v>
       </c>
       <c r="D14" t="n">
-        <v>1240.683758157403</v>
+        <v>1166.517418791162</v>
       </c>
       <c r="E14" t="n">
-        <v>867.4277535669428</v>
+        <v>793.2614142007013</v>
       </c>
       <c r="F14" t="n">
-        <v>468.9740967851191</v>
+        <v>394.8077574188778</v>
       </c>
       <c r="G14" t="n">
-        <v>66.43051463725496</v>
+        <v>66.43051463725494</v>
       </c>
       <c r="H14" t="n">
-        <v>66.43051463725496</v>
+        <v>66.43051463725494</v>
       </c>
       <c r="I14" t="n">
-        <v>66.43051463725496</v>
+        <v>66.43051463725494</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0284810458202</v>
+        <v>255.0284810458197</v>
       </c>
       <c r="K14" t="n">
-        <v>588.4264619589167</v>
+        <v>588.4264619589163</v>
       </c>
       <c r="L14" t="n">
-        <v>1038.937900205669</v>
+        <v>1038.937900205668</v>
       </c>
       <c r="M14" t="n">
-        <v>1571.888116960292</v>
+        <v>1571.888116960291</v>
       </c>
       <c r="N14" t="n">
-        <v>2118.075833783135</v>
+        <v>2118.075833783133</v>
       </c>
       <c r="O14" t="n">
-        <v>2620.490145471303</v>
+        <v>2620.490145471302</v>
       </c>
       <c r="P14" t="n">
-        <v>3014.788135872288</v>
+        <v>3014.788135872287</v>
       </c>
       <c r="Q14" t="n">
-        <v>3262.716759124032</v>
+        <v>3262.716759124031</v>
       </c>
       <c r="R14" t="n">
-        <v>3321.525731862748</v>
+        <v>3321.525731862747</v>
       </c>
       <c r="S14" t="n">
-        <v>3321.525731862748</v>
+        <v>3321.525731862747</v>
       </c>
       <c r="T14" t="n">
-        <v>3321.525731862748</v>
+        <v>3321.525731862747</v>
       </c>
       <c r="U14" t="n">
-        <v>3321.525731862748</v>
+        <v>3321.525731862747</v>
       </c>
       <c r="V14" t="n">
-        <v>3321.525731862748</v>
+        <v>3321.525731862747</v>
       </c>
       <c r="W14" t="n">
         <v>2981.289324600417</v>
@@ -5321,7 +5321,7 @@
         <v>2620.355814347121</v>
       </c>
       <c r="Y14" t="n">
-        <v>2242.748730379094</v>
+        <v>2242.748730379093</v>
       </c>
     </row>
     <row r="15">
@@ -5352,10 +5352,10 @@
         <v>82.78683000899395</v>
       </c>
       <c r="I15" t="n">
-        <v>66.43051463725496</v>
+        <v>66.43051463725494</v>
       </c>
       <c r="J15" t="n">
-        <v>159.9403244477879</v>
+        <v>159.9403244477878</v>
       </c>
       <c r="K15" t="n">
         <v>397.9183081622854</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1003.866933536737</v>
+        <v>869.5092340466091</v>
       </c>
       <c r="C16" t="n">
-        <v>847.4629986166136</v>
+        <v>713.1052991264862</v>
       </c>
       <c r="D16" t="n">
-        <v>709.8786072120618</v>
+        <v>575.5209077219346</v>
       </c>
       <c r="E16" t="n">
-        <v>574.4977616374525</v>
+        <v>440.1400621473254</v>
       </c>
       <c r="F16" t="n">
-        <v>440.140062147326</v>
+        <v>440.1400621473254</v>
       </c>
       <c r="G16" t="n">
-        <v>284.9679573779003</v>
+        <v>284.9679573778999</v>
       </c>
       <c r="H16" t="n">
-        <v>151.2695386345772</v>
+        <v>151.269538634577</v>
       </c>
       <c r="I16" t="n">
-        <v>66.43051463725496</v>
+        <v>66.43051463725494</v>
       </c>
       <c r="J16" t="n">
-        <v>123.7309445349034</v>
+        <v>123.7309445349036</v>
       </c>
       <c r="K16" t="n">
-        <v>339.8283398393345</v>
+        <v>339.8283398393348</v>
       </c>
       <c r="L16" t="n">
-        <v>668.4500697858807</v>
+        <v>668.4500697858812</v>
       </c>
       <c r="M16" t="n">
-        <v>1024.657037459215</v>
+        <v>1024.657037459216</v>
       </c>
       <c r="N16" t="n">
         <v>1378.120874893476</v>
       </c>
       <c r="O16" t="n">
-        <v>1689.523293496368</v>
+        <v>1689.523293496369</v>
       </c>
       <c r="P16" t="n">
-        <v>1934.233927614812</v>
+        <v>1934.233927614813</v>
       </c>
       <c r="Q16" t="n">
-        <v>2024.002649435817</v>
+        <v>2024.002649435819</v>
       </c>
       <c r="R16" t="n">
-        <v>1946.636268497142</v>
+        <v>2024.002649435819</v>
       </c>
       <c r="S16" t="n">
-        <v>1767.456209938597</v>
+        <v>1844.822590877274</v>
       </c>
       <c r="T16" t="n">
-        <v>1558.215364412212</v>
+        <v>1834.233314662113</v>
       </c>
       <c r="U16" t="n">
-        <v>1558.215364412212</v>
+        <v>1557.662613096344</v>
       </c>
       <c r="V16" t="n">
-        <v>1558.215364412212</v>
+        <v>1315.510372898241</v>
       </c>
       <c r="W16" t="n">
-        <v>1558.215364412212</v>
+        <v>1038.625450869065</v>
       </c>
       <c r="X16" t="n">
-        <v>1342.758061521978</v>
+        <v>1038.625450869065</v>
       </c>
       <c r="Y16" t="n">
-        <v>1172.983150359192</v>
+        <v>1038.625450869065</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1953.943017054065</v>
+        <v>1953.943017054064</v>
       </c>
       <c r="C17" t="n">
-        <v>1645.030956489864</v>
+        <v>1645.030956489863</v>
       </c>
       <c r="D17" t="n">
-        <v>1346.815714259324</v>
+        <v>1346.815714259323</v>
       </c>
       <c r="E17" t="n">
-        <v>1021.07791803729</v>
+        <v>1021.077918037289</v>
       </c>
       <c r="F17" t="n">
-        <v>670.142469623893</v>
+        <v>670.1424696238923</v>
       </c>
       <c r="G17" t="n">
-        <v>315.1170958444554</v>
+        <v>315.1170958444552</v>
       </c>
       <c r="H17" t="n">
-        <v>77.54933639782986</v>
+        <v>77.5493363978298</v>
       </c>
       <c r="I17" t="n">
-        <v>77.54933639782986</v>
+        <v>77.5493363978298</v>
       </c>
       <c r="J17" t="n">
-        <v>433.5529518267476</v>
+        <v>266.1473028063945</v>
       </c>
       <c r="K17" t="n">
-        <v>766.9509327398441</v>
+        <v>825.786828897891</v>
       </c>
       <c r="L17" t="n">
-        <v>1217.462370986596</v>
+        <v>1276.298267144643</v>
       </c>
       <c r="M17" t="n">
-        <v>1750.412587741219</v>
+        <v>1809.248483899266</v>
       </c>
       <c r="N17" t="n">
-        <v>2398.765825384321</v>
+        <v>2355.436200722109</v>
       </c>
       <c r="O17" t="n">
-        <v>2901.180137072489</v>
+        <v>2857.850512410277</v>
       </c>
       <c r="P17" t="n">
-        <v>3295.478127473474</v>
+        <v>3570.72922390103</v>
       </c>
       <c r="Q17" t="n">
-        <v>3753.598591478525</v>
+        <v>3818.657847152775</v>
       </c>
       <c r="R17" t="n">
-        <v>3877.466819891493</v>
+        <v>3877.46681989149</v>
       </c>
       <c r="S17" t="n">
-        <v>3827.149586030106</v>
+        <v>3827.149586030104</v>
       </c>
       <c r="T17" t="n">
-        <v>3681.207498837716</v>
+        <v>3681.207498837714</v>
       </c>
       <c r="U17" t="n">
-        <v>3487.727208087711</v>
+        <v>3487.72720808771</v>
       </c>
       <c r="V17" t="n">
-        <v>3216.714777120351</v>
+        <v>3216.714777120349</v>
       </c>
       <c r="W17" t="n">
-        <v>2923.996578226447</v>
+        <v>2923.996578226446</v>
       </c>
       <c r="X17" t="n">
-        <v>2610.581276341578</v>
+        <v>2610.581276341577</v>
       </c>
       <c r="Y17" t="n">
-        <v>2280.492400741977</v>
+        <v>2280.492400741975</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>949.6927360433904</v>
+        <v>949.9493725939917</v>
       </c>
       <c r="C18" t="n">
-        <v>775.2397067622634</v>
+        <v>775.4963433128647</v>
       </c>
       <c r="D18" t="n">
-        <v>626.3052971010121</v>
+        <v>626.5619336516135</v>
       </c>
       <c r="E18" t="n">
-        <v>467.0678420955566</v>
+        <v>467.324478646158</v>
       </c>
       <c r="F18" t="n">
-        <v>320.5332841224416</v>
+        <v>320.789920673043</v>
       </c>
       <c r="G18" t="n">
-        <v>184.1683754952808</v>
+        <v>184.4250120458821</v>
       </c>
       <c r="H18" t="n">
-        <v>93.64901521896758</v>
+        <v>93.90565176956892</v>
       </c>
       <c r="I18" t="n">
-        <v>77.54933639782986</v>
+        <v>77.5493363978298</v>
       </c>
       <c r="J18" t="n">
-        <v>171.0591462083628</v>
+        <v>171.0591462083627</v>
       </c>
       <c r="K18" t="n">
         <v>409.0371299228602</v>
@@ -5616,28 +5616,28 @@
         <v>2573.35570692557</v>
       </c>
       <c r="R18" t="n">
-        <v>2573.099070374969</v>
+        <v>2573.35570692557</v>
       </c>
       <c r="S18" t="n">
-        <v>2443.627592521239</v>
+        <v>2443.884229071841</v>
       </c>
       <c r="T18" t="n">
-        <v>2250.977302837091</v>
+        <v>2251.233939387692</v>
       </c>
       <c r="U18" t="n">
-        <v>2022.909336993889</v>
+        <v>2023.165973544491</v>
       </c>
       <c r="V18" t="n">
-        <v>1787.757228762147</v>
+        <v>1788.013865312748</v>
       </c>
       <c r="W18" t="n">
-        <v>1533.519872033945</v>
+        <v>1533.776508584546</v>
       </c>
       <c r="X18" t="n">
-        <v>1325.668371828412</v>
+        <v>1325.925008379014</v>
       </c>
       <c r="Y18" t="n">
-        <v>1117.908073063458</v>
+        <v>1118.16470961406</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>682.3582967183261</v>
+        <v>682.3582967183247</v>
       </c>
       <c r="C19" t="n">
-        <v>573.4725701666296</v>
+        <v>573.4725701666283</v>
       </c>
       <c r="D19" t="n">
-        <v>483.4063871305042</v>
+        <v>483.4063871305032</v>
       </c>
       <c r="E19" t="n">
-        <v>395.5437499243214</v>
+        <v>395.5437499243207</v>
       </c>
       <c r="F19" t="n">
-        <v>308.7042588026214</v>
+        <v>308.7042588026209</v>
       </c>
       <c r="G19" t="n">
-        <v>201.0503624016222</v>
+        <v>201.0503624016218</v>
       </c>
       <c r="H19" t="n">
-        <v>114.8701520267256</v>
+        <v>114.8701520267254</v>
       </c>
       <c r="I19" t="n">
-        <v>77.54933639782986</v>
+        <v>77.5493363978298</v>
       </c>
       <c r="J19" t="n">
-        <v>122.5669100230494</v>
+        <v>176.9208054850147</v>
       </c>
       <c r="K19" t="n">
-        <v>326.3814490550515</v>
+        <v>380.7353445170168</v>
       </c>
       <c r="L19" t="n">
-        <v>701.5757750234925</v>
+        <v>697.074218191134</v>
       </c>
       <c r="M19" t="n">
-        <v>1045.499886424398</v>
+        <v>1099.853781886364</v>
       </c>
       <c r="N19" t="n">
-        <v>1445.536319880553</v>
+        <v>1441.034763048195</v>
       </c>
       <c r="O19" t="n">
-        <v>1799.009777672986</v>
+        <v>1799.009777672982</v>
       </c>
       <c r="P19" t="n">
-        <v>2031.437555519001</v>
+        <v>2031.437555518997</v>
       </c>
       <c r="Q19" t="n">
-        <v>2108.923421067577</v>
+        <v>2108.923421067574</v>
       </c>
       <c r="R19" t="n">
-        <v>2079.075248497328</v>
+        <v>2079.075248497325</v>
       </c>
       <c r="S19" t="n">
-        <v>1947.413398307209</v>
+        <v>1947.413398307207</v>
       </c>
       <c r="T19" t="n">
-        <v>1785.690761149251</v>
+        <v>1785.690761149249</v>
       </c>
       <c r="U19" t="n">
-        <v>1556.638267951909</v>
+        <v>1556.638267951907</v>
       </c>
       <c r="V19" t="n">
-        <v>1362.004236122232</v>
+        <v>1362.00423612223</v>
       </c>
       <c r="W19" t="n">
-        <v>1132.637522461482</v>
+        <v>1132.63752246148</v>
       </c>
       <c r="X19" t="n">
-        <v>964.6984279396752</v>
+        <v>964.6984279396734</v>
       </c>
       <c r="Y19" t="n">
-        <v>803.9563051723554</v>
+        <v>803.9563051723538</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1645.030956489863</v>
       </c>
       <c r="D20" t="n">
-        <v>1346.815714259323</v>
+        <v>1346.815714259324</v>
       </c>
       <c r="E20" t="n">
         <v>1021.07791803729</v>
@@ -5741,16 +5741,16 @@
         <v>670.1424696238928</v>
       </c>
       <c r="G20" t="n">
-        <v>315.1170958444554</v>
+        <v>315.1170958444551</v>
       </c>
       <c r="H20" t="n">
-        <v>77.54933639782986</v>
+        <v>77.5493363978298</v>
       </c>
       <c r="I20" t="n">
-        <v>77.54933639782986</v>
+        <v>77.5493363978298</v>
       </c>
       <c r="J20" t="n">
-        <v>433.5529518267476</v>
+        <v>433.5529518267475</v>
       </c>
       <c r="K20" t="n">
         <v>766.9509327398441</v>
@@ -5768,31 +5768,31 @@
         <v>2799.01461625223</v>
       </c>
       <c r="P20" t="n">
-        <v>3295.478127473474</v>
+        <v>3295.478127473471</v>
       </c>
       <c r="Q20" t="n">
-        <v>3753.598591478525</v>
+        <v>3753.598591478522</v>
       </c>
       <c r="R20" t="n">
-        <v>3877.466819891493</v>
+        <v>3877.46681989149</v>
       </c>
       <c r="S20" t="n">
-        <v>3827.149586030106</v>
+        <v>3827.149586030104</v>
       </c>
       <c r="T20" t="n">
-        <v>3681.207498837716</v>
+        <v>3681.207498837714</v>
       </c>
       <c r="U20" t="n">
-        <v>3487.727208087711</v>
+        <v>3487.72720808771</v>
       </c>
       <c r="V20" t="n">
-        <v>3216.714777120351</v>
+        <v>3216.71477712035</v>
       </c>
       <c r="W20" t="n">
-        <v>2923.996578226447</v>
+        <v>2923.996578226446</v>
       </c>
       <c r="X20" t="n">
-        <v>2610.581276341578</v>
+        <v>2610.581276341577</v>
       </c>
       <c r="Y20" t="n">
         <v>2280.492400741976</v>
@@ -5826,10 +5826,10 @@
         <v>93.90565176956892</v>
       </c>
       <c r="I21" t="n">
-        <v>77.54933639782986</v>
+        <v>77.5493363978298</v>
       </c>
       <c r="J21" t="n">
-        <v>171.0591462083628</v>
+        <v>171.0591462083627</v>
       </c>
       <c r="K21" t="n">
         <v>409.0371299228602</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>682.3582967183261</v>
+        <v>682.3582967183247</v>
       </c>
       <c r="C22" t="n">
-        <v>573.4725701666296</v>
+        <v>573.4725701666283</v>
       </c>
       <c r="D22" t="n">
-        <v>483.4063871305042</v>
+        <v>483.4063871305032</v>
       </c>
       <c r="E22" t="n">
-        <v>395.5437499243214</v>
+        <v>395.5437499243207</v>
       </c>
       <c r="F22" t="n">
-        <v>308.7042588026214</v>
+        <v>308.7042588026209</v>
       </c>
       <c r="G22" t="n">
-        <v>201.0503624016222</v>
+        <v>201.0503624016218</v>
       </c>
       <c r="H22" t="n">
-        <v>114.8701520267256</v>
+        <v>114.8701520267254</v>
       </c>
       <c r="I22" t="n">
-        <v>77.54933639782986</v>
+        <v>77.5493363978298</v>
       </c>
       <c r="J22" t="n">
-        <v>181.4223623173731</v>
+        <v>122.5669100230493</v>
       </c>
       <c r="K22" t="n">
-        <v>444.092353643699</v>
+        <v>326.3814490550513</v>
       </c>
       <c r="L22" t="n">
-        <v>760.4312273178163</v>
+        <v>642.7203227291686</v>
       </c>
       <c r="M22" t="n">
-        <v>1104.355338718722</v>
+        <v>986.6444341300742</v>
       </c>
       <c r="N22" t="n">
-        <v>1445.536319880553</v>
+        <v>1386.680867586229</v>
       </c>
       <c r="O22" t="n">
-        <v>1799.009777672986</v>
+        <v>1744.655882211017</v>
       </c>
       <c r="P22" t="n">
-        <v>2031.437555519001</v>
+        <v>2031.437555518997</v>
       </c>
       <c r="Q22" t="n">
-        <v>2108.923421067577</v>
+        <v>2108.923421067574</v>
       </c>
       <c r="R22" t="n">
-        <v>2079.075248497328</v>
+        <v>2079.075248497325</v>
       </c>
       <c r="S22" t="n">
-        <v>1947.413398307209</v>
+        <v>1947.413398307207</v>
       </c>
       <c r="T22" t="n">
-        <v>1785.690761149251</v>
+        <v>1785.690761149249</v>
       </c>
       <c r="U22" t="n">
-        <v>1556.638267951909</v>
+        <v>1556.638267951907</v>
       </c>
       <c r="V22" t="n">
-        <v>1362.004236122232</v>
+        <v>1362.00423612223</v>
       </c>
       <c r="W22" t="n">
-        <v>1132.637522461482</v>
+        <v>1132.63752246148</v>
       </c>
       <c r="X22" t="n">
-        <v>964.6984279396752</v>
+        <v>964.6984279396734</v>
       </c>
       <c r="Y22" t="n">
-        <v>803.9563051723554</v>
+        <v>803.9563051723538</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1953.943017054066</v>
+        <v>1953.943017054065</v>
       </c>
       <c r="C23" t="n">
-        <v>1645.030956489865</v>
+        <v>1645.030956489863</v>
       </c>
       <c r="D23" t="n">
-        <v>1346.815714259325</v>
+        <v>1346.815714259324</v>
       </c>
       <c r="E23" t="n">
-        <v>1021.077918037291</v>
+        <v>1021.07791803729</v>
       </c>
       <c r="F23" t="n">
-        <v>670.1424696238937</v>
+        <v>670.1424696238928</v>
       </c>
       <c r="G23" t="n">
-        <v>315.1170958444554</v>
+        <v>315.1170958444551</v>
       </c>
       <c r="H23" t="n">
-        <v>77.54933639782986</v>
+        <v>77.54933639782982</v>
       </c>
       <c r="I23" t="n">
-        <v>77.54933639782986</v>
+        <v>77.54933639782982</v>
       </c>
       <c r="J23" t="n">
-        <v>282.1970072314914</v>
+        <v>433.5529518267475</v>
       </c>
       <c r="K23" t="n">
-        <v>615.594988144588</v>
+        <v>766.9509327398441</v>
       </c>
       <c r="L23" t="n">
-        <v>1066.10642639134</v>
+        <v>1217.462370986596</v>
       </c>
       <c r="M23" t="n">
-        <v>1599.056643145963</v>
+        <v>2127.829204989034</v>
       </c>
       <c r="N23" t="n">
-        <v>2145.244359968806</v>
+        <v>2674.016921811877</v>
       </c>
       <c r="O23" t="n">
-        <v>2647.658671656974</v>
+        <v>3176.431233500045</v>
       </c>
       <c r="P23" t="n">
-        <v>3360.537383147727</v>
+        <v>3570.72922390103</v>
       </c>
       <c r="Q23" t="n">
-        <v>3818.657847152777</v>
+        <v>3818.657847152775</v>
       </c>
       <c r="R23" t="n">
-        <v>3877.466819891493</v>
+        <v>3877.466819891491</v>
       </c>
       <c r="S23" t="n">
-        <v>3827.149586030107</v>
+        <v>3827.149586030104</v>
       </c>
       <c r="T23" t="n">
-        <v>3681.207498837717</v>
+        <v>3681.207498837714</v>
       </c>
       <c r="U23" t="n">
-        <v>3487.727208087712</v>
+        <v>3487.72720808771</v>
       </c>
       <c r="V23" t="n">
-        <v>3216.714777120352</v>
+        <v>3216.71477712035</v>
       </c>
       <c r="W23" t="n">
-        <v>2923.996578226448</v>
+        <v>2923.996578226446</v>
       </c>
       <c r="X23" t="n">
-        <v>2610.581276341579</v>
+        <v>2610.581276341577</v>
       </c>
       <c r="Y23" t="n">
-        <v>2280.492400741978</v>
+        <v>2280.492400741976</v>
       </c>
     </row>
     <row r="24">
@@ -6063,10 +6063,10 @@
         <v>93.90565176956892</v>
       </c>
       <c r="I24" t="n">
-        <v>77.54933639782986</v>
+        <v>77.54933639782982</v>
       </c>
       <c r="J24" t="n">
-        <v>171.0591462083628</v>
+        <v>171.0591462083627</v>
       </c>
       <c r="K24" t="n">
         <v>409.0371299228602</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>682.3582967183261</v>
+        <v>682.3582967183247</v>
       </c>
       <c r="C25" t="n">
-        <v>573.4725701666296</v>
+        <v>573.4725701666283</v>
       </c>
       <c r="D25" t="n">
-        <v>483.4063871305042</v>
+        <v>483.4063871305032</v>
       </c>
       <c r="E25" t="n">
-        <v>395.5437499243214</v>
+        <v>395.5437499243207</v>
       </c>
       <c r="F25" t="n">
-        <v>308.7042588026214</v>
+        <v>308.7042588026209</v>
       </c>
       <c r="G25" t="n">
-        <v>201.0503624016222</v>
+        <v>201.0503624016218</v>
       </c>
       <c r="H25" t="n">
-        <v>114.8701520267256</v>
+        <v>114.8701520267254</v>
       </c>
       <c r="I25" t="n">
-        <v>77.54933639782986</v>
+        <v>77.54933639782982</v>
       </c>
       <c r="J25" t="n">
-        <v>122.5669100230494</v>
+        <v>122.5669100230493</v>
       </c>
       <c r="K25" t="n">
-        <v>326.3814490550515</v>
+        <v>326.3814490550513</v>
       </c>
       <c r="L25" t="n">
         <v>642.7203227291686</v>
@@ -6157,40 +6157,40 @@
         <v>986.6444341300742</v>
       </c>
       <c r="N25" t="n">
-        <v>1327.825415291906</v>
+        <v>1386.680867586229</v>
       </c>
       <c r="O25" t="n">
-        <v>1681.298873084338</v>
+        <v>1744.655882211017</v>
       </c>
       <c r="P25" t="n">
-        <v>1972.582103224677</v>
+        <v>1977.083660057031</v>
       </c>
       <c r="Q25" t="n">
-        <v>2108.923421067577</v>
+        <v>2108.923421067574</v>
       </c>
       <c r="R25" t="n">
-        <v>2079.075248497328</v>
+        <v>2079.075248497325</v>
       </c>
       <c r="S25" t="n">
-        <v>1947.413398307209</v>
+        <v>1947.413398307207</v>
       </c>
       <c r="T25" t="n">
-        <v>1785.690761149251</v>
+        <v>1785.690761149249</v>
       </c>
       <c r="U25" t="n">
-        <v>1556.638267951909</v>
+        <v>1556.638267951907</v>
       </c>
       <c r="V25" t="n">
-        <v>1362.004236122232</v>
+        <v>1362.00423612223</v>
       </c>
       <c r="W25" t="n">
-        <v>1132.637522461482</v>
+        <v>1132.63752246148</v>
       </c>
       <c r="X25" t="n">
-        <v>964.6984279396752</v>
+        <v>964.6984279396734</v>
       </c>
       <c r="Y25" t="n">
-        <v>803.9563051723554</v>
+        <v>803.9563051723538</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2032.717147388707</v>
+        <v>2032.717147388708</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.272838816722</v>
+        <v>1711.272838816723</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.525348578398</v>
+        <v>1400.525348578399</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.25530434858</v>
+        <v>1062.255304348581</v>
       </c>
       <c r="F26" t="n">
-        <v>698.7876079273992</v>
+        <v>698.7876079274005</v>
       </c>
       <c r="G26" t="n">
         <v>331.2299861401775</v>
@@ -6227,22 +6227,22 @@
         <v>437.1335941146859</v>
       </c>
       <c r="K26" t="n">
-        <v>939.7596876205547</v>
+        <v>770.5315750277825</v>
       </c>
       <c r="L26" t="n">
-        <v>1390.271125867307</v>
+        <v>1221.043013274535</v>
       </c>
       <c r="M26" t="n">
-        <v>1923.22134262193</v>
+        <v>1753.993230029158</v>
       </c>
       <c r="N26" t="n">
-        <v>2469.409059444773</v>
+        <v>2300.180946852</v>
       </c>
       <c r="O26" t="n">
-        <v>2971.823371132941</v>
+        <v>2802.595258540169</v>
       </c>
       <c r="P26" t="n">
-        <v>3684.702082623694</v>
+        <v>3474.510241870388</v>
       </c>
       <c r="Q26" t="n">
         <v>3932.630705875438</v>
@@ -6257,19 +6257,19 @@
         <v>3835.175117219062</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.162578461272</v>
+        <v>3629.162578461273</v>
       </c>
       <c r="V26" t="n">
-        <v>3345.617899486128</v>
+        <v>3345.617899486129</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.367452584441</v>
+        <v>3040.367452584442</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.419902691788</v>
+        <v>2714.419902691789</v>
       </c>
       <c r="Y26" t="n">
-        <v>2371.798779084402</v>
+        <v>2371.798779084404</v>
       </c>
     </row>
     <row r="27">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>773.6646750607514</v>
+        <v>773.6646750607513</v>
       </c>
       <c r="C28" t="n">
-        <v>652.246700501271</v>
+        <v>652.2467005012709</v>
       </c>
       <c r="D28" t="n">
         <v>549.6482694573617</v>
       </c>
       <c r="E28" t="n">
-        <v>449.2533842433951</v>
+        <v>449.2533842433952</v>
       </c>
       <c r="F28" t="n">
-        <v>349.8816451139112</v>
+        <v>349.8816451139114</v>
       </c>
       <c r="G28" t="n">
-        <v>229.6955007051281</v>
+        <v>229.6955007051283</v>
       </c>
       <c r="H28" t="n">
-        <v>130.9830423224475</v>
+        <v>130.9830423224477</v>
       </c>
       <c r="I28" t="n">
         <v>81.12997868576814</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7201483328824</v>
+        <v>172.7201483328825</v>
       </c>
       <c r="K28" t="n">
-        <v>423.1072833867793</v>
+        <v>423.1072833867788</v>
       </c>
       <c r="L28" t="n">
-        <v>786.0187530827911</v>
+        <v>786.0187530827909</v>
       </c>
       <c r="M28" t="n">
         <v>1176.515460505591</v>
@@ -6400,7 +6400,7 @@
         <v>1909.961196041676</v>
       </c>
       <c r="P28" t="n">
-        <v>2188.961569909586</v>
+        <v>2188.961569909585</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.020031480057</v>
@@ -6427,7 +6427,7 @@
         <v>1081.069302297668</v>
       </c>
       <c r="Y28" t="n">
-        <v>907.7949315225646</v>
+        <v>907.7949315225644</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>2032.717147388707</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.272838816721</v>
+        <v>1711.272838816722</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.525348578397</v>
+        <v>1400.525348578398</v>
       </c>
       <c r="E29" t="n">
         <v>1062.25530434858</v>
       </c>
       <c r="F29" t="n">
-        <v>698.7876079273988</v>
+        <v>698.7876079273994</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2299861401774</v>
+        <v>331.2299861401775</v>
       </c>
       <c r="H29" t="n">
-        <v>81.12997868576809</v>
+        <v>81.12997868576814</v>
       </c>
       <c r="I29" t="n">
-        <v>81.12997868576809</v>
+        <v>81.12997868576814</v>
       </c>
       <c r="J29" t="n">
-        <v>437.1335941146858</v>
+        <v>437.1335941146859</v>
       </c>
       <c r="K29" t="n">
-        <v>939.7596876205529</v>
+        <v>770.5315750277825</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.271125867305</v>
+        <v>1221.043013274535</v>
       </c>
       <c r="M29" t="n">
-        <v>1923.221342621928</v>
+        <v>1753.993230029158</v>
       </c>
       <c r="N29" t="n">
-        <v>2469.409059444771</v>
+        <v>2300.180946852</v>
       </c>
       <c r="O29" t="n">
-        <v>2971.823371132939</v>
+        <v>2802.595258540169</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.702082623692</v>
+        <v>3474.510241870388</v>
       </c>
       <c r="Q29" t="n">
-        <v>3932.630705875436</v>
+        <v>3932.630705875438</v>
       </c>
       <c r="R29" t="n">
-        <v>4056.498934288405</v>
+        <v>4056.498934288406</v>
       </c>
       <c r="S29" t="n">
-        <v>3993.649452419234</v>
+        <v>3993.649452419236</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.17511721906</v>
+        <v>3835.175117219062</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.162578461272</v>
+        <v>3629.162578461273</v>
       </c>
       <c r="V29" t="n">
-        <v>3345.617899486127</v>
+        <v>3345.617899486129</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.36745258444</v>
+        <v>3040.367452584442</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.419902691787</v>
+        <v>2714.419902691788</v>
       </c>
       <c r="Y29" t="n">
-        <v>2371.798779084402</v>
+        <v>2371.798779084403</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>97.48629405750711</v>
       </c>
       <c r="I30" t="n">
-        <v>81.12997868576809</v>
+        <v>81.12997868576814</v>
       </c>
       <c r="J30" t="n">
         <v>174.639788496301</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>773.6646750607525</v>
+        <v>773.6646750607516</v>
       </c>
       <c r="C31" t="n">
-        <v>652.2467005012708</v>
+        <v>652.2467005012712</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6482694573616</v>
+        <v>549.6482694573619</v>
       </c>
       <c r="E31" t="n">
-        <v>449.253384243395</v>
+        <v>449.2533842433953</v>
       </c>
       <c r="F31" t="n">
-        <v>349.8816451139112</v>
+        <v>349.8816451139114</v>
       </c>
       <c r="G31" t="n">
-        <v>229.6955007051282</v>
+        <v>229.6955007051283</v>
       </c>
       <c r="H31" t="n">
-        <v>130.9830423224477</v>
+        <v>130.9830423224478</v>
       </c>
       <c r="I31" t="n">
-        <v>81.12997868576809</v>
+        <v>81.12997868576814</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7201483328824</v>
+        <v>172.7201483328822</v>
       </c>
       <c r="K31" t="n">
         <v>423.1072833867793</v>
@@ -6649,22 +6649,22 @@
         <v>2126.445512704122</v>
       </c>
       <c r="T31" t="n">
-        <v>1952.19062753838</v>
+        <v>1952.190627538379</v>
       </c>
       <c r="U31" t="n">
         <v>1710.605886333254</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.439606495794</v>
+        <v>1503.439606495793</v>
       </c>
       <c r="W31" t="n">
-        <v>1261.54064482726</v>
+        <v>1261.540644827259</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.069302297669</v>
+        <v>1081.069302297668</v>
       </c>
       <c r="Y31" t="n">
-        <v>907.7949315225657</v>
+        <v>907.7949315225649</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1062.25530434858</v>
       </c>
       <c r="F32" t="n">
-        <v>698.7876079273991</v>
+        <v>698.7876079273988</v>
       </c>
       <c r="G32" t="n">
         <v>331.2299861401775</v>
       </c>
       <c r="H32" t="n">
-        <v>81.12997868576811</v>
+        <v>81.12997868576812</v>
       </c>
       <c r="I32" t="n">
-        <v>81.12997868576811</v>
+        <v>81.12997868576812</v>
       </c>
       <c r="J32" t="n">
-        <v>269.7279450943328</v>
+        <v>437.1335941146858</v>
       </c>
       <c r="K32" t="n">
-        <v>924.0298844528825</v>
+        <v>770.5315750277824</v>
       </c>
       <c r="L32" t="n">
-        <v>1374.541322699635</v>
+        <v>1221.043013274535</v>
       </c>
       <c r="M32" t="n">
-        <v>1907.491539454257</v>
+        <v>1753.993230029158</v>
       </c>
       <c r="N32" t="n">
-        <v>2453.6792562771</v>
+        <v>2300.180946852</v>
       </c>
       <c r="O32" t="n">
-        <v>3080.212251469402</v>
+        <v>2802.595258540169</v>
       </c>
       <c r="P32" t="n">
         <v>3474.510241870387</v>
       </c>
       <c r="Q32" t="n">
-        <v>3932.630705875437</v>
+        <v>3932.630705875438</v>
       </c>
       <c r="R32" t="n">
         <v>4056.498934288406</v>
@@ -6731,10 +6731,10 @@
         <v>3835.175117219061</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.162578461272</v>
+        <v>3629.162578461273</v>
       </c>
       <c r="V32" t="n">
-        <v>3345.617899486128</v>
+        <v>3345.617899486129</v>
       </c>
       <c r="W32" t="n">
         <v>3040.367452584441</v>
@@ -6774,7 +6774,7 @@
         <v>97.48629405750711</v>
       </c>
       <c r="I33" t="n">
-        <v>81.12997868576811</v>
+        <v>81.12997868576812</v>
       </c>
       <c r="J33" t="n">
         <v>174.639788496301</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>773.6646750607515</v>
+        <v>773.6646750607513</v>
       </c>
       <c r="C34" t="n">
-        <v>652.2467005012711</v>
+        <v>652.2467005012709</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6482694573618</v>
+        <v>549.6482694573616</v>
       </c>
       <c r="E34" t="n">
-        <v>449.2533842433953</v>
+        <v>449.253384243395</v>
       </c>
       <c r="F34" t="n">
-        <v>349.8816451139114</v>
+        <v>349.8816451139111</v>
       </c>
       <c r="G34" t="n">
-        <v>229.6955007051283</v>
+        <v>229.695500705128</v>
       </c>
       <c r="H34" t="n">
         <v>130.9830423224478</v>
       </c>
       <c r="I34" t="n">
-        <v>81.12997868576811</v>
+        <v>81.12997868576812</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7201483328824</v>
+        <v>172.7201483328825</v>
       </c>
       <c r="K34" t="n">
-        <v>423.1072833867793</v>
+        <v>423.1072833867794</v>
       </c>
       <c r="L34" t="n">
         <v>786.0187530827914</v>
@@ -6877,7 +6877,7 @@
         <v>2188.961569909586</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.020031480057</v>
+        <v>2313.020031480058</v>
       </c>
       <c r="R34" t="n">
         <v>2270.639610902024</v>
@@ -6901,7 +6901,7 @@
         <v>1081.069302297668</v>
       </c>
       <c r="Y34" t="n">
-        <v>907.7949315225646</v>
+        <v>907.7949315225645</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2032.717147388706</v>
+        <v>2032.717147388707</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.272838816721</v>
+        <v>1711.272838816722</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.525348578397</v>
+        <v>1400.525348578398</v>
       </c>
       <c r="E35" t="n">
         <v>1062.25530434858</v>
@@ -6929,34 +6929,34 @@
         <v>331.2299861401775</v>
       </c>
       <c r="H35" t="n">
-        <v>81.12997868576812</v>
+        <v>81.12997868576811</v>
       </c>
       <c r="I35" t="n">
-        <v>81.12997868576812</v>
+        <v>81.12997868576811</v>
       </c>
       <c r="J35" t="n">
         <v>437.1335941146858</v>
       </c>
       <c r="K35" t="n">
-        <v>813.3220105524177</v>
+        <v>770.5315750277824</v>
       </c>
       <c r="L35" t="n">
-        <v>1263.83344879917</v>
+        <v>1221.043013274535</v>
       </c>
       <c r="M35" t="n">
-        <v>2241.802063711697</v>
+        <v>1753.993230029158</v>
       </c>
       <c r="N35" t="n">
-        <v>2787.98978053454</v>
+        <v>2300.180946852</v>
       </c>
       <c r="O35" t="n">
-        <v>3290.404092222708</v>
+        <v>2802.595258540169</v>
       </c>
       <c r="P35" t="n">
-        <v>3684.702082623693</v>
+        <v>3474.510241870387</v>
       </c>
       <c r="Q35" t="n">
-        <v>3932.630705875438</v>
+        <v>3932.630705875437</v>
       </c>
       <c r="R35" t="n">
         <v>4056.498934288406</v>
@@ -6965,22 +6965,22 @@
         <v>3993.649452419235</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.175117219062</v>
+        <v>3835.175117219061</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.162578461272</v>
+        <v>3629.162578461273</v>
       </c>
       <c r="V35" t="n">
-        <v>3345.617899486128</v>
+        <v>3345.617899486129</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.36745258444</v>
+        <v>3040.367452584441</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.419902691787</v>
+        <v>2714.419902691788</v>
       </c>
       <c r="Y35" t="n">
-        <v>2371.798779084402</v>
+        <v>2371.798779084403</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>953.5300148819299</v>
+        <v>953.2733783313286</v>
       </c>
       <c r="C36" t="n">
-        <v>779.0769856008029</v>
+        <v>778.8203490502016</v>
       </c>
       <c r="D36" t="n">
-        <v>630.1425759395516</v>
+        <v>629.8859393889503</v>
       </c>
       <c r="E36" t="n">
-        <v>470.9051209340961</v>
+        <v>470.6484843834948</v>
       </c>
       <c r="F36" t="n">
-        <v>324.3705629609811</v>
+        <v>324.1139264103798</v>
       </c>
       <c r="G36" t="n">
-        <v>188.0056543338203</v>
+        <v>187.749017783219</v>
       </c>
       <c r="H36" t="n">
-        <v>97.48629405750711</v>
+        <v>97.22965750690577</v>
       </c>
       <c r="I36" t="n">
-        <v>81.12997868576812</v>
+        <v>81.12997868576811</v>
       </c>
       <c r="J36" t="n">
         <v>174.639788496301</v>
@@ -7038,28 +7038,28 @@
         <v>2576.936349213508</v>
       </c>
       <c r="R36" t="n">
-        <v>2576.936349213508</v>
+        <v>2576.679712662907</v>
       </c>
       <c r="S36" t="n">
-        <v>2447.464871359779</v>
+        <v>2447.208234809178</v>
       </c>
       <c r="T36" t="n">
-        <v>2254.814581675631</v>
+        <v>2254.557945125029</v>
       </c>
       <c r="U36" t="n">
-        <v>2026.746615832429</v>
+        <v>2026.489979281828</v>
       </c>
       <c r="V36" t="n">
-        <v>1791.594507600686</v>
+        <v>1791.337871050085</v>
       </c>
       <c r="W36" t="n">
-        <v>1537.357150872485</v>
+        <v>1537.100514321883</v>
       </c>
       <c r="X36" t="n">
-        <v>1329.505650666952</v>
+        <v>1329.249014116351</v>
       </c>
       <c r="Y36" t="n">
-        <v>1121.745351901998</v>
+        <v>1121.488715351397</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>773.6646750607516</v>
+        <v>773.6646750607515</v>
       </c>
       <c r="C37" t="n">
-        <v>652.2467005012712</v>
+        <v>652.2467005012711</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6482694573619</v>
+        <v>549.6482694573618</v>
       </c>
       <c r="E37" t="n">
-        <v>449.2533842433954</v>
+        <v>449.2533842433953</v>
       </c>
       <c r="F37" t="n">
-        <v>349.8816451139115</v>
+        <v>349.8816451139114</v>
       </c>
       <c r="G37" t="n">
-        <v>229.6955007051284</v>
+        <v>229.6955007051283</v>
       </c>
       <c r="H37" t="n">
-        <v>130.9830423224479</v>
+        <v>130.9830423224477</v>
       </c>
       <c r="I37" t="n">
-        <v>81.12997868576812</v>
+        <v>81.12997868576811</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7201483328822</v>
+        <v>172.7201483328824</v>
       </c>
       <c r="K37" t="n">
-        <v>423.1072833867793</v>
+        <v>423.1072833867792</v>
       </c>
       <c r="L37" t="n">
-        <v>786.0187530827914</v>
+        <v>786.0187530827911</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.515460505592</v>
+        <v>1176.515460505591</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.269037689318</v>
+        <v>1564.269037689317</v>
       </c>
       <c r="O37" t="n">
         <v>1909.961196041676</v>
       </c>
       <c r="P37" t="n">
-        <v>2188.961569909586</v>
+        <v>2188.961569909585</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.020031480057</v>
@@ -7126,7 +7126,7 @@
         <v>1952.19062753838</v>
       </c>
       <c r="U37" t="n">
-        <v>1710.605886333253</v>
+        <v>1710.605886333254</v>
       </c>
       <c r="V37" t="n">
         <v>1503.439606495793</v>
@@ -7138,7 +7138,7 @@
         <v>1081.069302297668</v>
       </c>
       <c r="Y37" t="n">
-        <v>907.7949315225649</v>
+        <v>907.7949315225646</v>
       </c>
     </row>
     <row r="38">
@@ -7166,40 +7166,40 @@
         <v>331.2299861401775</v>
       </c>
       <c r="H38" t="n">
-        <v>81.12997868576814</v>
+        <v>81.12997868576811</v>
       </c>
       <c r="I38" t="n">
-        <v>81.12997868576814</v>
+        <v>81.12997868576811</v>
       </c>
       <c r="J38" t="n">
-        <v>437.1335941146859</v>
+        <v>269.7279450943328</v>
       </c>
       <c r="K38" t="n">
-        <v>770.5315750277825</v>
+        <v>924.0298844528825</v>
       </c>
       <c r="L38" t="n">
-        <v>1221.043013274535</v>
+        <v>1374.541322699635</v>
       </c>
       <c r="M38" t="n">
-        <v>1753.993230029158</v>
+        <v>1907.491539454257</v>
       </c>
       <c r="N38" t="n">
-        <v>2300.180946852</v>
+        <v>2453.6792562771</v>
       </c>
       <c r="O38" t="n">
-        <v>2802.595258540169</v>
+        <v>3036.882626807193</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.510241870388</v>
+        <v>3749.761338297945</v>
       </c>
       <c r="Q38" t="n">
-        <v>3932.630705875438</v>
+        <v>3997.68996154969</v>
       </c>
       <c r="R38" t="n">
         <v>4056.498934288406</v>
       </c>
       <c r="S38" t="n">
-        <v>3993.649452419236</v>
+        <v>3993.649452419235</v>
       </c>
       <c r="T38" t="n">
         <v>3835.175117219062</v>
@@ -7208,16 +7208,16 @@
         <v>3629.162578461273</v>
       </c>
       <c r="V38" t="n">
-        <v>3345.617899486128</v>
+        <v>3345.617899486129</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.367452584441</v>
+        <v>3040.367452584442</v>
       </c>
       <c r="X38" t="n">
         <v>2714.419902691788</v>
       </c>
       <c r="Y38" t="n">
-        <v>2371.798779084402</v>
+        <v>2371.798779084403</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>97.22965750690577</v>
       </c>
       <c r="I39" t="n">
-        <v>81.12997868576814</v>
+        <v>81.12997868576811</v>
       </c>
       <c r="J39" t="n">
         <v>174.639788496301</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>773.6646750607517</v>
+        <v>773.6646750607515</v>
       </c>
       <c r="C40" t="n">
-        <v>652.2467005012713</v>
+        <v>652.2467005012711</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6482694573621</v>
+        <v>549.6482694573618</v>
       </c>
       <c r="E40" t="n">
-        <v>449.2533842433954</v>
+        <v>449.2533842433952</v>
       </c>
       <c r="F40" t="n">
-        <v>349.8816451139115</v>
+        <v>349.8816451139114</v>
       </c>
       <c r="G40" t="n">
-        <v>229.6955007051284</v>
+        <v>229.6955007051283</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9830423224478</v>
+        <v>130.9830423224477</v>
       </c>
       <c r="I40" t="n">
-        <v>81.12997868576814</v>
+        <v>81.12997868576811</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7201483328831</v>
+        <v>172.7201483328824</v>
       </c>
       <c r="K40" t="n">
-        <v>423.1072833867799</v>
+        <v>423.1072833867793</v>
       </c>
       <c r="L40" t="n">
-        <v>786.0187530827919</v>
+        <v>786.0187530827914</v>
       </c>
       <c r="M40" t="n">
         <v>1176.515460505592</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.269037689318</v>
+        <v>1564.269037689317</v>
       </c>
       <c r="O40" t="n">
         <v>1909.961196041676</v>
       </c>
       <c r="P40" t="n">
-        <v>2188.961569909586</v>
+        <v>2188.961569909585</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.020031480058</v>
+        <v>2313.020031480057</v>
       </c>
       <c r="R40" t="n">
         <v>2270.639610902024</v>
@@ -7366,16 +7366,16 @@
         <v>1710.605886333254</v>
       </c>
       <c r="V40" t="n">
-        <v>1503.439606495794</v>
+        <v>1503.439606495793</v>
       </c>
       <c r="W40" t="n">
         <v>1261.540644827259</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.069302297669</v>
+        <v>1081.069302297668</v>
       </c>
       <c r="Y40" t="n">
-        <v>907.794931522565</v>
+        <v>907.7949315225646</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2032.717147388708</v>
+        <v>2032.717147388707</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.272838816723</v>
+        <v>1711.272838816722</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.525348578399</v>
+        <v>1400.525348578398</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.255304348581</v>
+        <v>1062.25530434858</v>
       </c>
       <c r="F41" t="n">
-        <v>698.7876079274006</v>
+        <v>698.7876079273999</v>
       </c>
       <c r="G41" t="n">
         <v>331.2299861401775</v>
@@ -7430,10 +7430,10 @@
         <v>3474.510241870388</v>
       </c>
       <c r="Q41" t="n">
-        <v>3932.630705875439</v>
+        <v>3932.630705875438</v>
       </c>
       <c r="R41" t="n">
-        <v>4056.498934288407</v>
+        <v>4056.498934288406</v>
       </c>
       <c r="S41" t="n">
         <v>3993.649452419236</v>
@@ -7442,19 +7442,19 @@
         <v>3835.175117219062</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.162578461274</v>
+        <v>3629.162578461273</v>
       </c>
       <c r="V41" t="n">
-        <v>3345.61789948613</v>
+        <v>3345.617899486129</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.367452584443</v>
+        <v>3040.367452584442</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.419902691789</v>
+        <v>2714.419902691788</v>
       </c>
       <c r="Y41" t="n">
-        <v>2371.798779084404</v>
+        <v>2371.798779084403</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>773.6646750607517</v>
+        <v>773.6646750607515</v>
       </c>
       <c r="C43" t="n">
-        <v>652.2467005012713</v>
+        <v>652.2467005012711</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6482694573621</v>
+        <v>549.6482694573618</v>
       </c>
       <c r="E43" t="n">
-        <v>449.2533842433954</v>
+        <v>449.2533842433952</v>
       </c>
       <c r="F43" t="n">
-        <v>349.8816451139115</v>
+        <v>349.8816451139114</v>
       </c>
       <c r="G43" t="n">
-        <v>229.6955007051284</v>
+        <v>229.6955007051283</v>
       </c>
       <c r="H43" t="n">
         <v>130.9830423224478</v>
@@ -7567,28 +7567,28 @@
         <v>81.12997868576814</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7201483328824</v>
+        <v>172.7201483328817</v>
       </c>
       <c r="K43" t="n">
-        <v>423.1072833867792</v>
+        <v>423.1072833867786</v>
       </c>
       <c r="L43" t="n">
-        <v>786.0187530827919</v>
+        <v>786.0187530827907</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.515460505592</v>
+        <v>1176.515460505591</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.269037689318</v>
+        <v>1564.269037689317</v>
       </c>
       <c r="O43" t="n">
         <v>1909.961196041676</v>
       </c>
       <c r="P43" t="n">
-        <v>2188.961569909586</v>
+        <v>2188.961569909585</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.020031480058</v>
+        <v>2313.020031480057</v>
       </c>
       <c r="R43" t="n">
         <v>2270.639610902024</v>
@@ -7603,16 +7603,16 @@
         <v>1710.605886333254</v>
       </c>
       <c r="V43" t="n">
-        <v>1503.439606495794</v>
+        <v>1503.439606495793</v>
       </c>
       <c r="W43" t="n">
         <v>1261.540644827259</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.069302297669</v>
+        <v>1081.069302297668</v>
       </c>
       <c r="Y43" t="n">
-        <v>907.794931522565</v>
+        <v>907.7949315225646</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2032.717147388707</v>
+        <v>2032.717147388706</v>
       </c>
       <c r="C44" t="n">
         <v>1711.272838816721</v>
@@ -7634,64 +7634,64 @@
         <v>1062.25530434858</v>
       </c>
       <c r="F44" t="n">
-        <v>698.7876079273987</v>
+        <v>698.7876079273988</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2299861401776</v>
+        <v>331.2299861401775</v>
       </c>
       <c r="H44" t="n">
-        <v>81.12997868576814</v>
+        <v>81.12997868576811</v>
       </c>
       <c r="I44" t="n">
-        <v>81.12997868576814</v>
+        <v>81.12997868576811</v>
       </c>
       <c r="J44" t="n">
-        <v>402.8176632680554</v>
+        <v>437.1335941146858</v>
       </c>
       <c r="K44" t="n">
-        <v>736.215644181152</v>
+        <v>770.5315750277824</v>
       </c>
       <c r="L44" t="n">
-        <v>1186.727082427904</v>
+        <v>1221.043013274535</v>
       </c>
       <c r="M44" t="n">
-        <v>1719.677299182527</v>
+        <v>1753.993230029158</v>
       </c>
       <c r="N44" t="n">
-        <v>2265.86501600537</v>
+        <v>2300.180946852</v>
       </c>
       <c r="O44" t="n">
-        <v>3145.271507143656</v>
+        <v>2802.595258540169</v>
       </c>
       <c r="P44" t="n">
-        <v>3539.569497544641</v>
+        <v>3474.510241870387</v>
       </c>
       <c r="Q44" t="n">
-        <v>3997.689961549691</v>
+        <v>3932.630705875437</v>
       </c>
       <c r="R44" t="n">
-        <v>4056.498934288407</v>
+        <v>4056.498934288406</v>
       </c>
       <c r="S44" t="n">
-        <v>3993.649452419236</v>
+        <v>3993.649452419235</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.175117219062</v>
+        <v>3835.175117219061</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.162578461273</v>
+        <v>3629.162578461272</v>
       </c>
       <c r="V44" t="n">
-        <v>3345.617899486129</v>
+        <v>3345.617899486128</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.367452584441</v>
+        <v>3040.36745258444</v>
       </c>
       <c r="X44" t="n">
         <v>2714.419902691787</v>
       </c>
       <c r="Y44" t="n">
-        <v>2371.798779084402</v>
+        <v>2371.798779084401</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>97.48629405750711</v>
       </c>
       <c r="I45" t="n">
-        <v>81.12997868576814</v>
+        <v>81.12997868576811</v>
       </c>
       <c r="J45" t="n">
         <v>174.639788496301</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>773.6646750607523</v>
+        <v>773.6646750607515</v>
       </c>
       <c r="C46" t="n">
-        <v>652.2467005012718</v>
+        <v>652.2467005012711</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6482694573624</v>
+        <v>549.6482694573618</v>
       </c>
       <c r="E46" t="n">
-        <v>449.2533842433957</v>
+        <v>449.2533842433952</v>
       </c>
       <c r="F46" t="n">
-        <v>349.8816451139117</v>
+        <v>349.8816451139114</v>
       </c>
       <c r="G46" t="n">
-        <v>229.6955007051285</v>
+        <v>229.6955007051283</v>
       </c>
       <c r="H46" t="n">
-        <v>130.9830423224479</v>
+        <v>130.9830423224477</v>
       </c>
       <c r="I46" t="n">
-        <v>81.12997868576814</v>
+        <v>81.12997868576811</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7201483328823</v>
+        <v>172.7201483328817</v>
       </c>
       <c r="K46" t="n">
-        <v>423.1072833867791</v>
+        <v>423.1072833867786</v>
       </c>
       <c r="L46" t="n">
-        <v>786.0187530827911</v>
+        <v>786.0187530827907</v>
       </c>
       <c r="M46" t="n">
         <v>1176.515460505591</v>
@@ -7822,34 +7822,34 @@
         <v>1909.961196041676</v>
       </c>
       <c r="P46" t="n">
-        <v>2188.961569909588</v>
+        <v>2188.961569909585</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.020031480059</v>
+        <v>2313.020031480057</v>
       </c>
       <c r="R46" t="n">
-        <v>2270.639610902026</v>
+        <v>2270.639610902024</v>
       </c>
       <c r="S46" t="n">
-        <v>2126.445512704123</v>
+        <v>2126.445512704122</v>
       </c>
       <c r="T46" t="n">
-        <v>1952.190627538381</v>
+        <v>1952.19062753838</v>
       </c>
       <c r="U46" t="n">
-        <v>1710.605886333255</v>
+        <v>1710.605886333254</v>
       </c>
       <c r="V46" t="n">
-        <v>1503.439606495794</v>
+        <v>1503.439606495793</v>
       </c>
       <c r="W46" t="n">
-        <v>1261.54064482726</v>
+        <v>1261.540644827259</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.069302297669</v>
+        <v>1081.069302297668</v>
       </c>
       <c r="Y46" t="n">
-        <v>907.7949315225655</v>
+        <v>907.7949315225646</v>
       </c>
     </row>
   </sheetData>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.546395060290962</v>
+        <v>0.5463950602909904</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.686108767841702</v>
+        <v>2.686108767841688</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>228.5268133115151</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,19 +9173,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>103.1974957780399</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.940178952936961</v>
+        <v>2.686108767841574</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.2540701850952303</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>103.1974957780395</v>
+        <v>103.1974957780367</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.686108767841631</v>
+        <v>2.686108767841574</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>16.21182265161301</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>381.2289063109245</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.686108767841631</v>
+        <v>2.686108767841588</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>170.9374874674467</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>280.4212049790243</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>170.9374874674449</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>280.4212049790243</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.686108767841674</v>
+        <v>2.686108767841716</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>125.3724075799332</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>280.4212049790238</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.686108767841688</v>
+        <v>2.686108767841702</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>43.22266214609624</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>280.4212049790233</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.686108767841702</v>
+        <v>2.940178952937018</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2540701850952303</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>81.60510994133779</v>
       </c>
       <c r="P38" t="n">
-        <v>280.4212049790243</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.940178952937046</v>
+        <v>2.940178952937018</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>280.4212049790247</v>
+        <v>280.4212049790243</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>134.434058761336</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>280.4212049790233</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.686108767841716</v>
+        <v>2.686108767841688</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.3269161357745</v>
+        <v>370.3269161357744</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>394.4691202140053</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>99.73619953395513</v>
       </c>
       <c r="H11" t="n">
-        <v>282.3252280911736</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29.63825917988952</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.0576110305571</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>122.1811913849825</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>336.834043189707</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>373.8310131283474</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>167.4250546542311</v>
       </c>
       <c r="C13" t="n">
-        <v>154.8398955709218</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>136.2085474905063</v>
+        <v>136.2085474905062</v>
       </c>
       <c r="E13" t="n">
-        <v>134.0270371188631</v>
+        <v>134.027037118863</v>
       </c>
       <c r="F13" t="n">
-        <v>133.0141224952252</v>
+        <v>133.0141224952251</v>
       </c>
       <c r="G13" t="n">
-        <v>55.4132621567736</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>132.3965291403119</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>84.10933813901377</v>
+        <v>52.16866778608598</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.165302566702</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>73.42467597257962</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>73.4246759725787</v>
       </c>
       <c r="H14" t="n">
-        <v>282.2351081369014</v>
+        <v>282.2351081369013</v>
       </c>
       <c r="I14" t="n">
-        <v>29.299008645328</v>
+        <v>29.29900864532783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.85708780751503</v>
+        <v>96.85708780751489</v>
       </c>
       <c r="T14" t="n">
-        <v>191.5256926052084</v>
+        <v>191.5256926052081</v>
       </c>
       <c r="U14" t="n">
-        <v>238.588514127247</v>
+        <v>238.5885141272468</v>
       </c>
       <c r="V14" t="n">
-        <v>315.3453329424289</v>
+        <v>315.3453329424287</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.014122495225</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>76.59271712928886</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>196.6650536181112</v>
       </c>
       <c r="U16" t="n">
-        <v>273.804994550111</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>239.730717796122</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>274.116072808885</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>213.3027298613309</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.10056577323064</v>
+        <v>206.1777278243886</v>
       </c>
     </row>
     <row r="17">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.385558334732195e-12</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1203028.927743365</v>
+        <v>1203028.927743366</v>
       </c>
     </row>
     <row r="6">
@@ -26314,43 +26314,43 @@
         <v>40963.81693585192</v>
       </c>
       <c r="C2" t="n">
+        <v>40963.8169358519</v>
+      </c>
+      <c r="D2" t="n">
         <v>40963.81693585192</v>
       </c>
-      <c r="D2" t="n">
-        <v>40963.81693585189</v>
-      </c>
       <c r="E2" t="n">
-        <v>35127.39228361215</v>
+        <v>35127.39228361219</v>
       </c>
       <c r="F2" t="n">
-        <v>35176.62949955605</v>
+        <v>35176.62949955608</v>
       </c>
       <c r="G2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="H2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="I2" t="n">
         <v>41052.08849321418</v>
       </c>
-      <c r="I2" t="n">
-        <v>41052.08849321417</v>
-      </c>
       <c r="J2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="K2" t="n">
         <v>41052.08849321423</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41052.08849321421</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321422</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321423</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321422</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321423</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321421</v>
@@ -26375,10 +26375,10 @@
         <v>1130160.812607723</v>
       </c>
       <c r="F3" t="n">
-        <v>2498.80686785128</v>
+        <v>2498.806867851457</v>
       </c>
       <c r="G3" t="n">
-        <v>75728.19930588342</v>
+        <v>75728.19930588332</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11710.66963481652</v>
+        <v>11710.66963481666</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37634.42102779375</v>
+        <v>37634.42102779379</v>
       </c>
       <c r="M3" t="n">
         <v>206265.9064228305</v>
       </c>
       <c r="N3" t="n">
-        <v>656.9955149975003</v>
+        <v>656.9955149974446</v>
       </c>
       <c r="O3" t="n">
-        <v>33446.94469380144</v>
+        <v>33446.94469380133</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>21854.01662723071</v>
+        <v>21854.01662723082</v>
       </c>
       <c r="F4" t="n">
-        <v>21741.14541225547</v>
+        <v>21741.14541225562</v>
       </c>
       <c r="G4" t="n">
-        <v>79726.88660684464</v>
+        <v>79726.88660684467</v>
       </c>
       <c r="H4" t="n">
-        <v>79726.88660684464</v>
+        <v>79726.88660684467</v>
       </c>
       <c r="I4" t="n">
-        <v>79726.88660684464</v>
+        <v>79726.8866068447</v>
       </c>
       <c r="J4" t="n">
+        <v>76856.41944290049</v>
+      </c>
+      <c r="K4" t="n">
+        <v>76856.41944290043</v>
+      </c>
+      <c r="L4" t="n">
+        <v>76856.4194429004</v>
+      </c>
+      <c r="M4" t="n">
         <v>76856.41944290044</v>
       </c>
-      <c r="K4" t="n">
-        <v>76856.41944290044</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>76856.41944290046</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>76856.41944290046</v>
+      </c>
+      <c r="P4" t="n">
         <v>76856.41944290043</v>
-      </c>
-      <c r="N4" t="n">
-        <v>76856.41944290043</v>
-      </c>
-      <c r="O4" t="n">
-        <v>76856.41944290043</v>
-      </c>
-      <c r="P4" t="n">
-        <v>76856.41944290041</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>75058.40607596135</v>
+        <v>75058.40607596133</v>
       </c>
       <c r="F5" t="n">
-        <v>75269.21540992505</v>
+        <v>75269.21540992503</v>
       </c>
       <c r="G5" t="n">
-        <v>87674.38012469395</v>
+        <v>87674.38012469393</v>
       </c>
       <c r="H5" t="n">
-        <v>87674.38012469395</v>
+        <v>87674.38012469393</v>
       </c>
       <c r="I5" t="n">
-        <v>87674.38012469395</v>
+        <v>87674.38012469394</v>
       </c>
       <c r="J5" t="n">
+        <v>89352.63044133833</v>
+      </c>
+      <c r="K5" t="n">
         <v>89352.63044133832</v>
-      </c>
-      <c r="K5" t="n">
-        <v>89352.6304413383</v>
       </c>
       <c r="L5" t="n">
         <v>89352.63044133832</v>
@@ -26506,7 +26506,7 @@
         <v>89352.63044133832</v>
       </c>
       <c r="O5" t="n">
-        <v>89352.63044133833</v>
+        <v>89352.63044133832</v>
       </c>
       <c r="P5" t="n">
         <v>89352.63044133832</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-412811.5519536793</v>
+        <v>-412815.9655315474</v>
       </c>
       <c r="C6" t="n">
-        <v>-412811.5519536793</v>
+        <v>-412815.9655315475</v>
       </c>
       <c r="D6" t="n">
-        <v>-412811.5519536794</v>
+        <v>-412815.9655315474</v>
       </c>
       <c r="E6" t="n">
-        <v>-1191945.843027303</v>
+        <v>-1192242.077837783</v>
       </c>
       <c r="F6" t="n">
-        <v>-64332.53819047575</v>
+        <v>-64626.31114015893</v>
       </c>
       <c r="G6" t="n">
-        <v>-202077.3775442078</v>
+        <v>-202077.3775442077</v>
       </c>
       <c r="H6" t="n">
         <v>-126349.1782383244</v>
       </c>
       <c r="I6" t="n">
-        <v>-126349.1782383244</v>
+        <v>-126349.1782383245</v>
       </c>
       <c r="J6" t="n">
-        <v>-136867.6310258411</v>
+        <v>-136867.6310258413</v>
       </c>
       <c r="K6" t="n">
         <v>-125156.9613910245</v>
@@ -26558,7 +26558,7 @@
         <v>-125813.956906022</v>
       </c>
       <c r="O6" t="n">
-        <v>-158603.906084826</v>
+        <v>-158603.9060848259</v>
       </c>
       <c r="P6" t="n">
         <v>-125156.9613910245</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="F2" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="G2" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="H2" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="I2" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="J2" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="K2" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="L2" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="M2" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="N2" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="O2" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="P2" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.755407162287</v>
+        <v>1086.755407162286</v>
       </c>
       <c r="F3" t="n">
         <v>1088.944333184521</v>
@@ -26796,25 +26796,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>827.6990193689929</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="F4" t="n">
-        <v>830.3814329656869</v>
+        <v>830.3814329656867</v>
       </c>
       <c r="G4" t="n">
-        <v>969.3667049728732</v>
+        <v>969.3667049728725</v>
       </c>
       <c r="H4" t="n">
-        <v>969.3667049728732</v>
+        <v>969.3667049728725</v>
       </c>
       <c r="I4" t="n">
-        <v>969.3667049728732</v>
+        <v>969.3667049728726</v>
       </c>
       <c r="J4" t="n">
         <v>1014.124733572102</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.124733572101</v>
+        <v>1014.124733572102</v>
       </c>
       <c r="L4" t="n">
         <v>1014.124733572101</v>
@@ -26823,13 +26823,13 @@
         <v>1014.124733572101</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.124733572102</v>
+        <v>1014.124733572101</v>
       </c>
       <c r="O4" t="n">
         <v>1014.124733572102</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.124733572102</v>
+        <v>1014.124733572101</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.04302628474218</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.755407162287</v>
+        <v>1086.755407162286</v>
       </c>
       <c r="F3" t="n">
-        <v>2.188926022234227</v>
+        <v>2.188926022234455</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>827.6990193689929</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="F4" t="n">
-        <v>2.682413596694005</v>
+        <v>2.682413596693891</v>
       </c>
       <c r="G4" t="n">
-        <v>138.9852720071863</v>
+        <v>138.9852720071858</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.7580285992284</v>
+        <v>44.75802859922896</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>827.699019368993</v>
+        <v>827.6990193689927</v>
       </c>
       <c r="N4" t="n">
-        <v>2.682413596694118</v>
+        <v>2.682413596693891</v>
       </c>
       <c r="O4" t="n">
-        <v>138.9852720071865</v>
+        <v>138.985272007186</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.776717873373372e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>827.6990193689929</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="N4" t="n">
-        <v>2.682413596694005</v>
+        <v>2.682413596693891</v>
       </c>
       <c r="O4" t="n">
-        <v>138.9852720071863</v>
+        <v>138.9852720071858</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="C11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="D11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="E11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="F11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="G11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="H11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="I11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="T11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="U11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="V11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="W11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="X11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="C13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="D13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="E13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="F13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="G13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="H13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="I13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="J13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="K13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="L13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="M13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="N13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="O13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="P13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="R13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="S13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="T13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="U13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="V13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="W13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="X13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770618</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="C14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="D14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="E14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="F14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="G14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="H14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="I14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="T14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="U14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="V14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="W14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="X14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="C16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="D16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="E16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="F16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="G16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="H16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="I16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="J16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="K16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="L16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="M16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="N16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="O16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="P16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="R16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="S16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="T16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="U16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="V16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="W16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="X16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.40692552770606</v>
+        <v>12.40692552770621</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="C17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="D17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="E17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="F17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="G17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="H17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="I17" t="n">
         <v>41.70593417303405</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="T17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="U17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="V17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="W17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="X17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,46 +28719,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="C19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="D19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="E19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="F19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="G19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="H19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="I19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>54.90292470905601</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>59.44995181244828</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="N19" t="n">
-        <v>59.44995181244828</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>54.90292470905985</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="S19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="T19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="U19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="V19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="W19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="X19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="C20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="D20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="E20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="F20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="G20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="H20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="I20" t="n">
         <v>41.70593417303405</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="T20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="U20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="V20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="W20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="X20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="Y20" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="C22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="D22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="E22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="F22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="G22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="H22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="I22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="J22" t="n">
-        <v>59.44995181244828</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.44995181244828</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28992,40 +28992,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="O22" t="n">
-        <v>54.90292470906007</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>54.90292470905601</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="S22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="T22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="U22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="V22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="W22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="X22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="C23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="D23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="E23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="F23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="G23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="H23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="I23" t="n">
         <v>41.70593417303405</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="T23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="U23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="V23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="W23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="X23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="Y23" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="C25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="D25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="E25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="F25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="G25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="H25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="I25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29229,40 +29229,40 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="O25" t="n">
-        <v>54.90292470905985</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="P25" t="n">
-        <v>59.44995181244828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.44995181244828</v>
+        <v>54.90292470905611</v>
       </c>
       <c r="R25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="S25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="T25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="U25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="V25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="W25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="X25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.44995181244828</v>
+        <v>59.44995181244845</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="C26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="D26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="E26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="F26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="G26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="H26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="I26" t="n">
         <v>41.70593417303405</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="T26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="U26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="V26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="W26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="X26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="C28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="D28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="E28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="F28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="G28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="H28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="I28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="J28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="K28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="L28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="M28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="N28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="O28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="P28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="R28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="S28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="T28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="U28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="V28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="W28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="X28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.04302628474221</v>
+        <v>47.04302628474228</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="C29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="D29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="E29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="F29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="G29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="H29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="I29" t="n">
         <v>41.70593417303405</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="T29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="U29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="V29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="W29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="X29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="C31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="D31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="E31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="F31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="G31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="H31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="I31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="J31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="K31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="L31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="M31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="N31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="O31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="P31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="R31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="S31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="T31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="U31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="V31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="W31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="X31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.04302628474228</v>
+        <v>47.04302628474223</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="C32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="D32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="E32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="F32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="G32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="H32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="I32" t="n">
         <v>41.70593417303405</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="T32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="U32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="V32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="W32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="X32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="C34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="D34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="E34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="F34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="G34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="H34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="I34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="J34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="K34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="L34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="M34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="N34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="O34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="P34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="R34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="S34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="T34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="U34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="V34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="W34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="X34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.04302628474225</v>
+        <v>47.04302628474222</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="C35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="D35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="E35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="F35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="G35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="H35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="I35" t="n">
         <v>41.70593417303405</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="T35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="U35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="V35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="W35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="X35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="C37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="D37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="E37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="F37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="G37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="H37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="I37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="J37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="K37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="L37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="M37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="N37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="O37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="P37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="R37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="S37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="T37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="U37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="V37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="W37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="X37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.04302628474222</v>
+        <v>47.04302628474224</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="C38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="D38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="E38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="F38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="G38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="H38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="I38" t="n">
         <v>41.70593417303405</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="T38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="U38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="V38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="W38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="X38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="C40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="D40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="E40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="F40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="G40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="I40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="J40" t="n">
-        <v>47.04302628474287</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="K40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="L40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="M40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="N40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474164</v>
       </c>
       <c r="O40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="P40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="R40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="S40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="T40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="U40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="V40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="W40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="X40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="C41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="D41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="E41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="F41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="G41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="H41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="I41" t="n">
         <v>41.70593417303405</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="T41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="U41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="V41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="W41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="X41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="C43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="D43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="E43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="F43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="G43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="I43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="J43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474149</v>
       </c>
       <c r="K43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="L43" t="n">
-        <v>47.04302628474289</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="M43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="N43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="O43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="P43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="R43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="S43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="T43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="U43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="V43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="W43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="X43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.0430262847422</v>
+        <v>47.04302628474224</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="C44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="D44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="E44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="F44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="G44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="H44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="I44" t="n">
         <v>41.70593417303405</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="T44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="U44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="V44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="W44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="X44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="C46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="D46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="E46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="F46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="G46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="H46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="I46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="J46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474153</v>
       </c>
       <c r="K46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="L46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="M46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="N46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="O46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="P46" t="n">
-        <v>47.04302628474457</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="R46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="S46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="T46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="U46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="V46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="W46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="X46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.04302628474213</v>
+        <v>47.04302628474224</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.36886595844135</v>
+        <v>4.368865958441349</v>
       </c>
       <c r="H11" t="n">
-        <v>44.74264849688749</v>
+        <v>44.74264849688748</v>
       </c>
       <c r="I11" t="n">
         <v>168.4307048628103</v>
       </c>
       <c r="J11" t="n">
-        <v>370.8020371402619</v>
+        <v>370.8020371402618</v>
       </c>
       <c r="K11" t="n">
-        <v>555.7361331610844</v>
+        <v>555.7361331610842</v>
       </c>
       <c r="L11" t="n">
-        <v>689.439814736734</v>
+        <v>689.4398147367339</v>
       </c>
       <c r="M11" t="n">
-        <v>767.1346347251653</v>
+        <v>767.1346347251651</v>
       </c>
       <c r="N11" t="n">
-        <v>779.5476751295869</v>
+        <v>779.5476751295867</v>
       </c>
       <c r="O11" t="n">
-        <v>736.1047642553357</v>
+        <v>736.1047642553355</v>
       </c>
       <c r="P11" t="n">
-        <v>628.2483859063148</v>
+        <v>628.2483859063145</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7883737696337</v>
+        <v>471.7883737696336</v>
       </c>
       <c r="R11" t="n">
         <v>274.4357762619417</v>
       </c>
       <c r="S11" t="n">
-        <v>99.55553302798236</v>
+        <v>99.55553302798235</v>
       </c>
       <c r="T11" t="n">
         <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3495092766753079</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,31 +31832,31 @@
         <v>2.337549366349069</v>
       </c>
       <c r="H12" t="n">
-        <v>22.57580572237128</v>
+        <v>22.57580572237127</v>
       </c>
       <c r="I12" t="n">
-        <v>80.48141458701842</v>
+        <v>80.48141458701839</v>
       </c>
       <c r="J12" t="n">
         <v>220.8471530724794</v>
       </c>
       <c r="K12" t="n">
-        <v>377.4629606178671</v>
+        <v>377.462960617867</v>
       </c>
       <c r="L12" t="n">
-        <v>507.5455323732925</v>
+        <v>507.5455323732924</v>
       </c>
       <c r="M12" t="n">
-        <v>592.2816969034462</v>
+        <v>592.281696903446</v>
       </c>
       <c r="N12" t="n">
-        <v>607.9576310312872</v>
+        <v>607.9576310312871</v>
       </c>
       <c r="O12" t="n">
-        <v>556.1624582295525</v>
+        <v>556.1624582295524</v>
       </c>
       <c r="P12" t="n">
-        <v>446.369404877657</v>
+        <v>446.3694048776569</v>
       </c>
       <c r="Q12" t="n">
         <v>298.3861261325584</v>
@@ -31865,13 +31865,13 @@
         <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.41895423898379</v>
+        <v>43.41895423898378</v>
       </c>
       <c r="T12" t="n">
-        <v>9.421964331906992</v>
+        <v>9.42196433190699</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1537861425229651</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>17.42371783942159</v>
       </c>
       <c r="I13" t="n">
-        <v>58.93421126053845</v>
+        <v>58.93421126053843</v>
       </c>
       <c r="J13" t="n">
         <v>138.5524065819853</v>
@@ -31932,22 +31932,22 @@
         <v>299.8910453895538</v>
       </c>
       <c r="O13" t="n">
-        <v>276.9979191894957</v>
+        <v>276.9979191894956</v>
       </c>
       <c r="P13" t="n">
-        <v>237.0195727358534</v>
+        <v>237.0195727358533</v>
       </c>
       <c r="Q13" t="n">
         <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.11626629220767</v>
+        <v>88.11626629220765</v>
       </c>
       <c r="S13" t="n">
-        <v>34.15262484475578</v>
+        <v>34.15262484475577</v>
       </c>
       <c r="T13" t="n">
-        <v>8.373361333873353</v>
+        <v>8.373361333873351</v>
       </c>
       <c r="U13" t="n">
         <v>0.1068939744749791</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>189.7561326135756</v>
+        <v>189.7561326135755</v>
       </c>
       <c r="K11" t="n">
-        <v>335.6462821161038</v>
+        <v>335.6462821161037</v>
       </c>
       <c r="L11" t="n">
-        <v>453.6733997667467</v>
+        <v>453.6733997667466</v>
       </c>
       <c r="M11" t="n">
-        <v>536.7884014978926</v>
+        <v>536.7884014978924</v>
       </c>
       <c r="N11" t="n">
-        <v>550.1346115329959</v>
+        <v>550.1346115329957</v>
       </c>
       <c r="O11" t="n">
-        <v>506.0065528336489</v>
+        <v>506.0065528336487</v>
       </c>
       <c r="P11" t="n">
-        <v>397.0153901510452</v>
+        <v>397.015390151045</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.4826838951842</v>
+        <v>249.4826838951841</v>
       </c>
       <c r="R11" t="n">
-        <v>58.8502384478096</v>
+        <v>58.85023844780955</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581275</v>
+        <v>94.00952640581272</v>
       </c>
       <c r="K12" t="n">
-        <v>239.6215216435081</v>
+        <v>239.621521643508</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934183</v>
+        <v>368.9911525934182</v>
       </c>
       <c r="M12" t="n">
-        <v>450.1476629814279</v>
+        <v>450.1476629814277</v>
       </c>
       <c r="N12" t="n">
-        <v>476.6159189479539</v>
+        <v>476.6159189479538</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5662137851081</v>
+        <v>413.5662137851079</v>
       </c>
       <c r="P12" t="n">
-        <v>312.3949974633268</v>
+        <v>312.3949974633267</v>
       </c>
       <c r="Q12" t="n">
         <v>158.4043520465369</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.60015199301857</v>
+        <v>57.60015199301866</v>
       </c>
       <c r="K13" t="n">
         <v>217.8215993335285</v>
       </c>
       <c r="L13" t="n">
-        <v>331.35429388199</v>
+        <v>331.3542938819901</v>
       </c>
       <c r="M13" t="n">
         <v>359.1862694682238</v>
       </c>
       <c r="N13" t="n">
-        <v>356.4301432964885</v>
+        <v>356.4301432964886</v>
       </c>
       <c r="O13" t="n">
-        <v>313.9899726312414</v>
+        <v>313.9899726312415</v>
       </c>
       <c r="P13" t="n">
-        <v>246.7050575284529</v>
+        <v>246.705057528453</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.34494875751696</v>
+        <v>90.34494875751705</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.87922211883686</v>
+        <v>57.87922211883702</v>
       </c>
       <c r="K16" t="n">
-        <v>218.2801972772031</v>
+        <v>218.2801972772033</v>
       </c>
       <c r="L16" t="n">
-        <v>331.9411413601477</v>
+        <v>331.9411413601479</v>
       </c>
       <c r="M16" t="n">
-        <v>359.8050178518531</v>
+        <v>359.8050178518532</v>
       </c>
       <c r="N16" t="n">
-        <v>357.0341792265257</v>
+        <v>357.0341792265258</v>
       </c>
       <c r="O16" t="n">
-        <v>314.5478975786791</v>
+        <v>314.5478975786793</v>
       </c>
       <c r="P16" t="n">
-        <v>247.1824587054989</v>
+        <v>247.182458705499</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.67547658687434</v>
+        <v>90.67547658687448</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.5996115443613</v>
+        <v>190.5029963722876</v>
       </c>
       <c r="K17" t="n">
-        <v>336.7656372859562</v>
+        <v>565.2924505974713</v>
       </c>
       <c r="L17" t="n">
         <v>455.0620588351034</v>
@@ -35893,19 +35893,19 @@
         <v>538.3335522773966</v>
       </c>
       <c r="N17" t="n">
-        <v>654.9022602455577</v>
+        <v>551.7047644675179</v>
       </c>
       <c r="O17" t="n">
         <v>507.4892037254226</v>
       </c>
       <c r="P17" t="n">
-        <v>398.2807983848333</v>
+        <v>720.0795065563159</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.7479434394448</v>
+        <v>250.4329527795402</v>
       </c>
       <c r="R17" t="n">
-        <v>125.1194226393616</v>
+        <v>59.40300276637913</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.4722965911308</v>
+        <v>100.3752213001868</v>
       </c>
       <c r="K19" t="n">
         <v>205.873271749497</v>
       </c>
       <c r="L19" t="n">
-        <v>378.98416764489</v>
+        <v>319.5342158324416</v>
       </c>
       <c r="M19" t="n">
-        <v>347.398092324147</v>
+        <v>406.8480441365955</v>
       </c>
       <c r="N19" t="n">
-        <v>404.0772055112679</v>
+        <v>344.6272536988196</v>
       </c>
       <c r="O19" t="n">
-        <v>357.0438967600329</v>
+        <v>361.5909238634215</v>
       </c>
       <c r="P19" t="n">
         <v>234.7755331777928</v>
@@ -36136,7 +36136,7 @@
         <v>507.4892037254226</v>
       </c>
       <c r="P20" t="n">
-        <v>501.4782941628728</v>
+        <v>501.47829416287</v>
       </c>
       <c r="Q20" t="n">
         <v>462.7479434394448</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>104.9222484035791</v>
+        <v>45.4722965911308</v>
       </c>
       <c r="K22" t="n">
-        <v>265.3232235619453</v>
+        <v>205.873271749497</v>
       </c>
       <c r="L22" t="n">
         <v>319.5342158324416</v>
@@ -36288,13 +36288,13 @@
         <v>347.398092324147</v>
       </c>
       <c r="N22" t="n">
-        <v>344.6272536988196</v>
+        <v>404.0772055112681</v>
       </c>
       <c r="O22" t="n">
-        <v>357.0438967600331</v>
+        <v>361.5909238634215</v>
       </c>
       <c r="P22" t="n">
-        <v>234.7755331777928</v>
+        <v>289.6784578868488</v>
       </c>
       <c r="Q22" t="n">
         <v>78.26855105916827</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7148190239006</v>
+        <v>359.5996115443613</v>
       </c>
       <c r="K23" t="n">
         <v>336.7656372859562</v>
@@ -36364,7 +36364,7 @@
         <v>455.0620588351034</v>
       </c>
       <c r="M23" t="n">
-        <v>538.3335522773966</v>
+        <v>919.5624585883211</v>
       </c>
       <c r="N23" t="n">
         <v>551.7047644675179</v>
@@ -36373,10 +36373,10 @@
         <v>507.4892037254226</v>
       </c>
       <c r="P23" t="n">
-        <v>720.0795065563159</v>
+        <v>398.2807983848333</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.7479434394448</v>
+        <v>250.4329527795402</v>
       </c>
       <c r="R23" t="n">
         <v>59.40300276637913</v>
@@ -36525,16 +36525,16 @@
         <v>347.398092324147</v>
       </c>
       <c r="N25" t="n">
-        <v>344.6272536988196</v>
+        <v>404.0772055112681</v>
       </c>
       <c r="O25" t="n">
-        <v>357.0438967600329</v>
+        <v>361.5909238634215</v>
       </c>
       <c r="P25" t="n">
-        <v>294.2254849902411</v>
+        <v>234.7755331777928</v>
       </c>
       <c r="Q25" t="n">
-        <v>137.7185028716166</v>
+        <v>133.1714757682244</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>359.5996115443613</v>
       </c>
       <c r="K26" t="n">
-        <v>507.7031247534028</v>
+        <v>336.7656372859562</v>
       </c>
       <c r="L26" t="n">
         <v>455.0620588351034</v>
@@ -36610,10 +36610,10 @@
         <v>507.4892037254226</v>
       </c>
       <c r="P26" t="n">
-        <v>720.0795065563159</v>
+        <v>678.7020033638576</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.4329527795402</v>
+        <v>462.7479434394448</v>
       </c>
       <c r="R26" t="n">
         <v>125.1194226393616</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.51532287587301</v>
+        <v>92.51532287587307</v>
       </c>
       <c r="K28" t="n">
-        <v>252.9162980342392</v>
+        <v>252.9162980342393</v>
       </c>
       <c r="L28" t="n">
         <v>366.5772421171839</v>
       </c>
       <c r="M28" t="n">
-        <v>394.4411186088892</v>
+        <v>394.4411186088893</v>
       </c>
       <c r="N28" t="n">
         <v>391.6702799835618</v>
@@ -36771,7 +36771,7 @@
         <v>281.8185594625351</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3115773439105</v>
+        <v>125.3115773439106</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>359.5996115443613</v>
       </c>
       <c r="K29" t="n">
-        <v>507.7031247534011</v>
+        <v>336.7656372859562</v>
       </c>
       <c r="L29" t="n">
         <v>455.0620588351034</v>
@@ -36847,10 +36847,10 @@
         <v>507.4892037254226</v>
       </c>
       <c r="P29" t="n">
-        <v>720.0795065563159</v>
+        <v>678.7020033638576</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.4329527795402</v>
+        <v>462.7479434394448</v>
       </c>
       <c r="R29" t="n">
         <v>125.1194226393616</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.51532287587307</v>
+        <v>92.51532287587303</v>
       </c>
       <c r="K31" t="n">
         <v>252.9162980342393</v>
@@ -36996,7 +36996,7 @@
         <v>366.5772421171839</v>
       </c>
       <c r="M31" t="n">
-        <v>394.4411186088893</v>
+        <v>394.4411186088892</v>
       </c>
       <c r="N31" t="n">
         <v>391.6702799835618</v>
@@ -37008,7 +37008,7 @@
         <v>281.8185594625351</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3115773439106</v>
+        <v>125.3115773439105</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.5029963722876</v>
+        <v>359.5996115443613</v>
       </c>
       <c r="K32" t="n">
-        <v>660.9110498571209</v>
+        <v>336.7656372859562</v>
       </c>
       <c r="L32" t="n">
         <v>455.0620588351034</v>
@@ -37081,10 +37081,10 @@
         <v>551.7047644675179</v>
       </c>
       <c r="O32" t="n">
-        <v>632.8616113053558</v>
+        <v>507.4892037254226</v>
       </c>
       <c r="P32" t="n">
-        <v>398.2807983848333</v>
+        <v>678.7020033638571</v>
       </c>
       <c r="Q32" t="n">
         <v>462.7479434394448</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.51532287587304</v>
+        <v>92.51532287587301</v>
       </c>
       <c r="K34" t="n">
-        <v>252.9162980342393</v>
+        <v>252.9162980342392</v>
       </c>
       <c r="L34" t="n">
         <v>366.5772421171839</v>
       </c>
       <c r="M34" t="n">
-        <v>394.4411186088893</v>
+        <v>394.4411186088892</v>
       </c>
       <c r="N34" t="n">
         <v>391.6702799835618</v>
@@ -37306,13 +37306,13 @@
         <v>359.5996115443613</v>
       </c>
       <c r="K35" t="n">
-        <v>379.9882994320524</v>
+        <v>336.7656372859562</v>
       </c>
       <c r="L35" t="n">
         <v>455.0620588351034</v>
       </c>
       <c r="M35" t="n">
-        <v>987.8470857702291</v>
+        <v>538.3335522773966</v>
       </c>
       <c r="N35" t="n">
         <v>551.7047644675179</v>
@@ -37321,10 +37321,10 @@
         <v>507.4892037254226</v>
       </c>
       <c r="P35" t="n">
-        <v>398.2807983848333</v>
+        <v>678.7020033638566</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.4329527795402</v>
+        <v>462.7479434394448</v>
       </c>
       <c r="R35" t="n">
         <v>125.1194226393616</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.51532287587301</v>
+        <v>92.51532287587304</v>
       </c>
       <c r="K37" t="n">
-        <v>252.9162980342392</v>
+        <v>252.9162980342393</v>
       </c>
       <c r="L37" t="n">
         <v>366.5772421171839</v>
       </c>
       <c r="M37" t="n">
-        <v>394.4411186088892</v>
+        <v>394.4411186088893</v>
       </c>
       <c r="N37" t="n">
         <v>391.6702799835618</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.5996115443613</v>
+        <v>190.5029963722876</v>
       </c>
       <c r="K38" t="n">
-        <v>336.7656372859562</v>
+        <v>660.9110498571209</v>
       </c>
       <c r="L38" t="n">
         <v>455.0620588351034</v>
@@ -37555,16 +37555,16 @@
         <v>551.7047644675179</v>
       </c>
       <c r="O38" t="n">
-        <v>507.4892037254226</v>
+        <v>589.0943136667604</v>
       </c>
       <c r="P38" t="n">
-        <v>678.7020033638576</v>
+        <v>720.0795065563159</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.7479434394448</v>
+        <v>250.4329527795402</v>
       </c>
       <c r="R38" t="n">
-        <v>125.1194226393616</v>
+        <v>59.40300276637913</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.51532287587366</v>
+        <v>92.51532287587304</v>
       </c>
       <c r="K40" t="n">
-        <v>252.9162980342392</v>
+        <v>252.9162980342393</v>
       </c>
       <c r="L40" t="n">
         <v>366.5772421171839</v>
       </c>
       <c r="M40" t="n">
-        <v>394.4411186088892</v>
+        <v>394.4411186088893</v>
       </c>
       <c r="N40" t="n">
-        <v>391.6702799835618</v>
+        <v>391.6702799835612</v>
       </c>
       <c r="O40" t="n">
         <v>349.1839983357153</v>
       </c>
       <c r="P40" t="n">
-        <v>281.818559462535</v>
+        <v>281.8185594625351</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3115773439105</v>
@@ -37795,7 +37795,7 @@
         <v>507.4892037254226</v>
       </c>
       <c r="P41" t="n">
-        <v>678.702003363858</v>
+        <v>678.7020033638576</v>
       </c>
       <c r="Q41" t="n">
         <v>462.7479434394448</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.515322875873</v>
+        <v>92.51532287587229</v>
       </c>
       <c r="K43" t="n">
-        <v>252.9162980342392</v>
+        <v>252.9162980342393</v>
       </c>
       <c r="L43" t="n">
-        <v>366.5772421171845</v>
+        <v>366.5772421171839</v>
       </c>
       <c r="M43" t="n">
-        <v>394.4411186088892</v>
+        <v>394.4411186088893</v>
       </c>
       <c r="N43" t="n">
         <v>391.6702799835618</v>
@@ -37953,7 +37953,7 @@
         <v>349.1839983357153</v>
       </c>
       <c r="P43" t="n">
-        <v>281.818559462535</v>
+        <v>281.8185594625351</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3115773439105</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>324.9370551336235</v>
+        <v>359.5996115443613</v>
       </c>
       <c r="K44" t="n">
         <v>336.7656372859562</v>
@@ -38029,16 +38029,16 @@
         <v>551.7047644675179</v>
       </c>
       <c r="O44" t="n">
-        <v>888.289384988168</v>
+        <v>507.4892037254226</v>
       </c>
       <c r="P44" t="n">
-        <v>398.2807983848333</v>
+        <v>678.7020033638566</v>
       </c>
       <c r="Q44" t="n">
         <v>462.7479434394448</v>
       </c>
       <c r="R44" t="n">
-        <v>59.40300276637913</v>
+        <v>125.1194226393616</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.51532287587293</v>
+        <v>92.51532287587233</v>
       </c>
       <c r="K46" t="n">
-        <v>252.9162980342392</v>
+        <v>252.9162980342393</v>
       </c>
       <c r="L46" t="n">
-        <v>366.5772421171838</v>
+        <v>366.5772421171839</v>
       </c>
       <c r="M46" t="n">
-        <v>394.4411186088892</v>
+        <v>394.4411186088893</v>
       </c>
       <c r="N46" t="n">
-        <v>391.6702799835617</v>
+        <v>391.6702799835618</v>
       </c>
       <c r="O46" t="n">
-        <v>349.1839983357152</v>
+        <v>349.1839983357153</v>
       </c>
       <c r="P46" t="n">
-        <v>281.8185594625374</v>
+        <v>281.8185594625351</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3115773439104</v>
+        <v>125.3115773439105</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
